--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,53 +468,2679 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>162</v>
+      </c>
+      <c r="E6" t="n">
+        <v>317</v>
+      </c>
+      <c r="F6" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>W36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>222</v>
+      </c>
+      <c r="E13" t="n">
+        <v>417</v>
+      </c>
+      <c r="F13" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>359</v>
+      </c>
+      <c r="E14" t="n">
+        <v>636</v>
+      </c>
+      <c r="F14" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>98</v>
+      </c>
+      <c r="E15" t="n">
+        <v>196</v>
+      </c>
+      <c r="F15" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>176</v>
+      </c>
+      <c r="E16" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>342</v>
+      </c>
+      <c r="E17" t="n">
+        <v>677</v>
+      </c>
+      <c r="F17" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4504</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>W51</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>279</v>
+      </c>
+      <c r="E20" t="n">
+        <v>578</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>461</v>
+      </c>
+      <c r="E22" t="n">
+        <v>773</v>
+      </c>
+      <c r="F22" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>425</v>
+      </c>
+      <c r="E23" t="n">
+        <v>850</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>541</v>
+      </c>
+      <c r="E24" t="n">
+        <v>973</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>W50</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>356</v>
+      </c>
+      <c r="E26" t="n">
+        <v>657</v>
+      </c>
+      <c r="F26" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>252</v>
+      </c>
+      <c r="E27" t="n">
+        <v>375</v>
+      </c>
+      <c r="F27" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2415</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2990</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>470</v>
+      </c>
+      <c r="E35" t="n">
+        <v>909</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>525</v>
+      </c>
+      <c r="E36" t="n">
+        <v>893</v>
+      </c>
+      <c r="F36" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>59</v>
+      </c>
+      <c r="E37" t="n">
+        <v>117</v>
+      </c>
+      <c r="F37" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2535</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="n">
+        <v>81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>191</v>
+      </c>
+      <c r="E41" t="n">
+        <v>370</v>
+      </c>
+      <c r="F41" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>686</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>150</v>
+      </c>
+      <c r="E45" t="n">
+        <v>289</v>
+      </c>
+      <c r="F45" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>68</v>
+      </c>
+      <c r="E46" t="n">
+        <v>140</v>
+      </c>
+      <c r="F46" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>274</v>
+      </c>
+      <c r="E47" t="n">
+        <v>545</v>
+      </c>
+      <c r="F47" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>41</v>
+      </c>
+      <c r="E48" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>59</v>
+      </c>
+      <c r="E49" t="n">
+        <v>128</v>
+      </c>
+      <c r="F49" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>534</v>
+      </c>
+      <c r="E50" t="n">
+        <v>853</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>237</v>
+      </c>
+      <c r="E51" t="n">
+        <v>454</v>
+      </c>
+      <c r="F51" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>607</v>
+      </c>
+      <c r="E52" t="n">
+        <v>754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>15</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29</v>
+      </c>
+      <c r="F53" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>86</v>
+      </c>
+      <c r="E54" t="n">
+        <v>144</v>
+      </c>
+      <c r="F54" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>128</v>
+      </c>
+      <c r="E55" t="n">
+        <v>284</v>
+      </c>
+      <c r="F55" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>264</v>
+      </c>
+      <c r="E56" t="n">
+        <v>457</v>
+      </c>
+      <c r="F56" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>225</v>
+      </c>
+      <c r="E57" t="n">
+        <v>442</v>
+      </c>
+      <c r="F57" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>136</v>
+      </c>
+      <c r="E60" t="n">
+        <v>234</v>
+      </c>
+      <c r="F60" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>80</v>
+      </c>
+      <c r="E61" t="n">
+        <v>139</v>
+      </c>
+      <c r="F61" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>68</v>
+      </c>
+      <c r="E62" t="n">
+        <v>85</v>
+      </c>
+      <c r="F62" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>309</v>
+      </c>
+      <c r="E64" t="n">
+        <v>601</v>
+      </c>
+      <c r="F64" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>132</v>
+      </c>
+      <c r="E65" t="n">
+        <v>242</v>
+      </c>
+      <c r="F65" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>474</v>
+      </c>
+      <c r="E67" t="n">
+        <v>934</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+      <c r="F68" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>62</v>
+      </c>
+      <c r="E69" t="n">
+        <v>133</v>
+      </c>
+      <c r="F69" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>237</v>
+      </c>
+      <c r="E70" t="n">
+        <v>478</v>
+      </c>
+      <c r="F70" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>24</v>
+      </c>
+      <c r="E71" t="n">
+        <v>24</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>325</v>
+      </c>
+      <c r="E72" t="n">
+        <v>620</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>202</v>
+      </c>
+      <c r="E73" t="n">
+        <v>400</v>
+      </c>
+      <c r="F73" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" t="n">
+        <v>19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>133</v>
+      </c>
+      <c r="E75" t="n">
+        <v>198</v>
+      </c>
+      <c r="F75" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>19</v>
+      </c>
+      <c r="E76" t="n">
+        <v>40</v>
+      </c>
+      <c r="F76" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>45</v>
+      </c>
+      <c r="E78" t="n">
+        <v>91</v>
+      </c>
+      <c r="F78" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>46</v>
+      </c>
+      <c r="E79" t="n">
+        <v>69</v>
+      </c>
+      <c r="F79" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>228</v>
+      </c>
+      <c r="E80" t="n">
+        <v>448</v>
+      </c>
+      <c r="F80" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>387</v>
+      </c>
+      <c r="E81" t="n">
+        <v>772</v>
+      </c>
+      <c r="F81" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>B0D2V2FPS7</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>A620M GAMING X AX</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>58</v>
+      </c>
+      <c r="E82" t="n">
+        <v>115</v>
+      </c>
+      <c r="F82" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>523</v>
+      </c>
+      <c r="E83" t="n">
+        <v>941</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>241</v>
+      </c>
+      <c r="E84" t="n">
+        <v>470</v>
+      </c>
+      <c r="F84" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>486</v>
+      </c>
+      <c r="E85" t="n">
+        <v>934</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>W14</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>54</v>
-      </c>
-      <c r="E3" t="n">
-        <v>92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>92</v>
+      <c r="D86" t="n">
+        <v>91</v>
+      </c>
+      <c r="E86" t="n">
+        <v>182</v>
+      </c>
+      <c r="F86" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>218</v>
+      </c>
+      <c r="E87" t="n">
+        <v>436</v>
+      </c>
+      <c r="F87" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>16</v>
+      </c>
+      <c r="E88" t="n">
+        <v>24</v>
+      </c>
+      <c r="F88" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>716</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1421</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>678</v>
+      </c>
+      <c r="E90" t="n">
+        <v>839</v>
+      </c>
+      <c r="F90" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1411</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2678</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2385</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>543</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>230</v>
+      </c>
+      <c r="E94" t="n">
+        <v>474</v>
+      </c>
+      <c r="F94" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>786</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>297</v>
+      </c>
+      <c r="E96" t="n">
+        <v>590</v>
+      </c>
+      <c r="F96" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>373</v>
+      </c>
+      <c r="E97" t="n">
+        <v>717</v>
+      </c>
+      <c r="F97" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>46</v>
+      </c>
+      <c r="E98" t="n">
+        <v>70</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>44</v>
+      </c>
+      <c r="E99" t="n">
+        <v>90</v>
+      </c>
+      <c r="F99" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>62</v>
+      </c>
+      <c r="E100" t="n">
+        <v>99</v>
+      </c>
+      <c r="F100" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>115</v>
+      </c>
+      <c r="E101" t="n">
+        <v>173</v>
+      </c>
+      <c r="F101" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>17</v>
+      </c>
+      <c r="E102" t="n">
+        <v>21</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>45</v>
+      </c>
+      <c r="E103" t="n">
+        <v>88</v>
+      </c>
+      <c r="F103" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>17</v>
+      </c>
+      <c r="E104" t="n">
+        <v>17</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -481,28 +481,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="G2" t="n">
-        <v>464.1</v>
+        <v>464.8</v>
       </c>
       <c r="H2" t="n">
-        <v>785.2</v>
+        <v>794.8</v>
       </c>
       <c r="I2" t="n">
-        <v>785.2</v>
+        <v>794.8</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="G3" t="n">
-        <v>437.5</v>
+        <v>325</v>
       </c>
       <c r="H3" t="n">
-        <v>862.6</v>
+        <v>618.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1012.6</v>
+        <v>618.8</v>
       </c>
     </row>
   </sheetData>

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F2" t="n">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="G2" t="n">
-        <v>464.8</v>
+        <v>479.7</v>
       </c>
       <c r="H2" t="n">
-        <v>794.8</v>
+        <v>813.8</v>
       </c>
       <c r="I2" t="n">
-        <v>794.8</v>
+        <v>813.8</v>
       </c>
     </row>
     <row r="3">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G3" t="n">
         <v>325</v>

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,75 +474,5004 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>477</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>479.7</v>
+        <v>2.78</v>
       </c>
       <c r="H2" t="n">
-        <v>813.8</v>
+        <v>5.36</v>
       </c>
       <c r="I2" t="n">
-        <v>813.8</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>376</v>
+      </c>
+      <c r="G3" t="n">
+        <v>480.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>924.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1659.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>110</v>
+      </c>
+      <c r="G8" t="n">
+        <v>151.14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>151.14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>151.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>195</v>
+      </c>
+      <c r="G9" t="n">
+        <v>218</v>
+      </c>
+      <c r="H9" t="n">
+        <v>218</v>
+      </c>
+      <c r="I9" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>325</v>
+      </c>
+      <c r="G11" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>692.9000000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>919.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>W51</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.640000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1737</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3963</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>109</v>
+      </c>
+      <c r="G15" t="n">
+        <v>127</v>
+      </c>
+      <c r="H15" t="n">
+        <v>259</v>
+      </c>
+      <c r="I15" t="n">
+        <v>390.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.140000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30.52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" t="n">
+        <v>165</v>
+      </c>
+      <c r="G19" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>117</v>
+      </c>
+      <c r="F21" t="n">
+        <v>476</v>
+      </c>
+      <c r="G21" t="n">
+        <v>479.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>813.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>813.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>267</v>
+      </c>
+      <c r="G23" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>671.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1276.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>155</v>
+      </c>
+      <c r="F26" t="n">
+        <v>155</v>
+      </c>
+      <c r="G26" t="n">
+        <v>184</v>
+      </c>
+      <c r="H26" t="n">
+        <v>184</v>
+      </c>
+      <c r="I26" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.019999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>2025-04-13</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E28" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>270</v>
+      </c>
+      <c r="G28" t="n">
+        <v>325</v>
+      </c>
+      <c r="H28" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>618.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>113.02</v>
+      </c>
+      <c r="H29" t="n">
+        <v>113.02</v>
+      </c>
+      <c r="I29" t="n">
+        <v>113.02</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33</v>
+      </c>
+      <c r="G30" t="n">
+        <v>37.10000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>76.20000000000002</v>
+      </c>
+      <c r="I30" t="n">
+        <v>147.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>79</v>
+      </c>
+      <c r="F32" t="n">
+        <v>353</v>
+      </c>
+      <c r="G32" t="n">
+        <v>390</v>
+      </c>
+      <c r="H32" t="n">
+        <v>507</v>
+      </c>
+      <c r="I32" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>344</v>
+      </c>
+      <c r="G33" t="n">
+        <v>442.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>862.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>978.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.940000000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.700000000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>45</v>
+      </c>
+      <c r="G38" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>91</v>
+      </c>
+      <c r="I38" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>55</v>
+      </c>
+      <c r="F39" t="n">
+        <v>734</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1020.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="I41" t="n">
+        <v>33.86000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>35.58</v>
+      </c>
+      <c r="H44" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="I44" t="n">
+        <v>139.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>69</v>
+      </c>
+      <c r="F46" t="n">
+        <v>344</v>
+      </c>
+      <c r="G46" t="n">
+        <v>369.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>734.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1076.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.059999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>30</v>
+      </c>
+      <c r="G49" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="H49" t="n">
+        <v>59.06</v>
+      </c>
+      <c r="I49" t="n">
+        <v>111.18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>372</v>
+      </c>
+      <c r="G50" t="n">
+        <v>485.3000000000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>942.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1190.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>17</v>
+      </c>
+      <c r="F51" t="n">
+        <v>163</v>
+      </c>
+      <c r="G51" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>512.1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.660000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>43</v>
+      </c>
+      <c r="F53" t="n">
+        <v>169</v>
+      </c>
+      <c r="G53" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>320.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>85</v>
+      </c>
+      <c r="G54" t="n">
+        <v>101</v>
+      </c>
+      <c r="H54" t="n">
+        <v>191</v>
+      </c>
+      <c r="I54" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>43</v>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>11</v>
+      </c>
+      <c r="F61" t="n">
+        <v>89</v>
+      </c>
+      <c r="G61" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="I61" t="n">
+        <v>286.4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>59</v>
+      </c>
+      <c r="F62" t="n">
+        <v>323</v>
+      </c>
+      <c r="G62" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>676</v>
+      </c>
+      <c r="I62" t="n">
+        <v>750.1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>39</v>
+      </c>
+      <c r="G64" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>83.40000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>86</v>
+      </c>
+      <c r="G67" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>414.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>44</v>
+      </c>
+      <c r="F69" t="n">
+        <v>151</v>
+      </c>
+      <c r="G69" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
-        <v>254</v>
-      </c>
-      <c r="G3" t="n">
-        <v>325</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F70" t="n">
+        <v>106</v>
+      </c>
+      <c r="G70" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>262.5000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>122</v>
+      </c>
+      <c r="G71" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>499.1999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>69</v>
+      </c>
+      <c r="F72" t="n">
+        <v>333</v>
+      </c>
+      <c r="G72" t="n">
+        <v>337</v>
+      </c>
+      <c r="H72" t="n">
+        <v>565</v>
+      </c>
+      <c r="I72" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>30</v>
+      </c>
+      <c r="F73" t="n">
+        <v>141</v>
+      </c>
+      <c r="G73" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>259.52</v>
+      </c>
+      <c r="I73" t="n">
+        <v>259.52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22</v>
+      </c>
+      <c r="G74" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="H74" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="I74" t="n">
+        <v>99.75999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>66</v>
+      </c>
+      <c r="G75" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>222.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>49</v>
+      </c>
+      <c r="F77" t="n">
+        <v>644</v>
+      </c>
+      <c r="G77" t="n">
+        <v>795.6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1561.3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1921.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>54</v>
+      </c>
+      <c r="F79" t="n">
+        <v>368</v>
+      </c>
+      <c r="G79" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>824.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>917.8000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30</v>
+      </c>
+      <c r="G80" t="n">
+        <v>34</v>
+      </c>
+      <c r="H80" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>94.19999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>34</v>
+      </c>
+      <c r="G81" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>42</v>
+      </c>
+      <c r="F82" t="n">
+        <v>263</v>
+      </c>
+      <c r="G82" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>588.6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>934.3999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>80</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1618</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2057.9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3998.8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4911.400000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9.600000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>43</v>
+      </c>
+      <c r="F87" t="n">
+        <v>201</v>
+      </c>
+      <c r="G87" t="n">
+        <v>208</v>
+      </c>
+      <c r="H87" t="n">
+        <v>410.8</v>
+      </c>
+      <c r="I87" t="n">
+        <v>552.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>14</v>
+      </c>
+      <c r="F88" t="n">
+        <v>273</v>
+      </c>
+      <c r="G88" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>686.4000000000001</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1007.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>87</v>
+      </c>
+      <c r="F91" t="n">
+        <v>551</v>
+      </c>
+      <c r="G91" t="n">
         <v>618.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>618.8</v>
+      <c r="H91" t="n">
+        <v>931.6999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1378.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>126</v>
+      </c>
+      <c r="F94" t="n">
+        <v>445</v>
+      </c>
+      <c r="G94" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="H94" t="n">
+        <v>710.9000000000001</v>
+      </c>
+      <c r="I94" t="n">
+        <v>772.5000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>174</v>
+      </c>
+      <c r="G95" t="n">
+        <v>221</v>
+      </c>
+      <c r="H95" t="n">
+        <v>431.6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>45</v>
+      </c>
+      <c r="G96" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="H96" t="n">
+        <v>62.28</v>
+      </c>
+      <c r="I96" t="n">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>263</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1261</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1324.7</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2575.3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3464.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>121</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1330.1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2634</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4456.599999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>39</v>
+      </c>
+      <c r="F99" t="n">
+        <v>758</v>
+      </c>
+      <c r="G99" t="n">
+        <v>958.1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1868.1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2519.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>41</v>
+      </c>
+      <c r="F100" t="n">
+        <v>274</v>
+      </c>
+      <c r="G100" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>717.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>51</v>
+      </c>
+      <c r="F101" t="n">
+        <v>199</v>
+      </c>
+      <c r="G101" t="n">
+        <v>242.8</v>
+      </c>
+      <c r="H101" t="n">
+        <v>527.9000000000001</v>
+      </c>
+      <c r="I101" t="n">
+        <v>623.8000000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>78</v>
+      </c>
+      <c r="F102" t="n">
+        <v>545</v>
+      </c>
+      <c r="G102" t="n">
+        <v>614.7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1387.04</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>39</v>
+      </c>
+      <c r="F103" t="n">
+        <v>238</v>
+      </c>
+      <c r="G103" t="n">
+        <v>260</v>
+      </c>
+      <c r="H103" t="n">
+        <v>529.1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>717.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G104" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>262.4999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>394.0999999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>119</v>
+      </c>
+      <c r="F105" t="n">
+        <v>627</v>
+      </c>
+      <c r="G105" t="n">
+        <v>683.8</v>
+      </c>
+      <c r="H105" t="n">
+        <v>845</v>
+      </c>
+      <c r="I105" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>96</v>
+      </c>
+      <c r="G106" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="H106" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="I107" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>102</v>
+      </c>
+      <c r="G108" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>256.9</v>
+      </c>
+      <c r="I108" t="n">
+        <v>348.6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>79</v>
+      </c>
+      <c r="F110" t="n">
+        <v>428</v>
+      </c>
+      <c r="G110" t="n">
+        <v>462.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>915.2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1229.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>20</v>
+      </c>
+      <c r="F111" t="n">
+        <v>182</v>
+      </c>
+      <c r="G111" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="H111" t="n">
+        <v>420.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>627.6000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>45655</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+      <c r="I112" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>46</v>
+      </c>
+      <c r="G113" t="n">
+        <v>51</v>
+      </c>
+      <c r="H113" t="n">
+        <v>106</v>
+      </c>
+      <c r="I113" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21</v>
+      </c>
+      <c r="F114" t="n">
+        <v>171</v>
+      </c>
+      <c r="G114" t="n">
+        <v>199</v>
+      </c>
+      <c r="H114" t="n">
+        <v>400</v>
+      </c>
+      <c r="I114" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="E115" t="n">
+        <v>82</v>
+      </c>
+      <c r="F115" t="n">
+        <v>367</v>
+      </c>
+      <c r="G115" t="n">
+        <v>380</v>
+      </c>
+      <c r="H115" t="n">
+        <v>771</v>
+      </c>
+      <c r="I115" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="E116" t="n">
+        <v>21</v>
+      </c>
+      <c r="F116" t="n">
+        <v>152</v>
+      </c>
+      <c r="G116" t="n">
+        <v>174</v>
+      </c>
+      <c r="H116" t="n">
+        <v>220</v>
+      </c>
+      <c r="I116" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>45739</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11</v>
+      </c>
+      <c r="F117" t="n">
+        <v>67</v>
+      </c>
+      <c r="G117" t="n">
+        <v>74</v>
+      </c>
+      <c r="H117" t="n">
+        <v>155</v>
+      </c>
+      <c r="I117" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>45774</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30</v>
+      </c>
+      <c r="F119" t="n">
+        <v>148</v>
+      </c>
+      <c r="G119" t="n">
+        <v>157</v>
+      </c>
+      <c r="H119" t="n">
+        <v>238</v>
+      </c>
+      <c r="I119" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>45774</v>
+      </c>
+      <c r="E120" t="n">
+        <v>73</v>
+      </c>
+      <c r="F120" t="n">
+        <v>291</v>
+      </c>
+      <c r="G120" t="n">
+        <v>291</v>
+      </c>
+      <c r="H120" t="n">
+        <v>434</v>
+      </c>
+      <c r="I120" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="E122" t="n">
+        <v>31</v>
+      </c>
+      <c r="F122" t="n">
+        <v>127</v>
+      </c>
+      <c r="G122" t="n">
+        <v>129</v>
+      </c>
+      <c r="H122" t="n">
+        <v>161</v>
+      </c>
+      <c r="I122" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>22</v>
+      </c>
+      <c r="G126" t="n">
+        <v>24</v>
+      </c>
+      <c r="H126" t="n">
+        <v>52</v>
+      </c>
+      <c r="I126" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>45739</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>25</v>
+      </c>
+      <c r="G127" t="n">
+        <v>30</v>
+      </c>
+      <c r="H127" t="n">
+        <v>69</v>
+      </c>
+      <c r="I127" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21</v>
+      </c>
+      <c r="G128" t="n">
+        <v>21</v>
+      </c>
+      <c r="H128" t="n">
+        <v>43</v>
+      </c>
+      <c r="I128" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18</v>
+      </c>
+      <c r="G129" t="n">
+        <v>18</v>
+      </c>
+      <c r="H129" t="n">
+        <v>41</v>
+      </c>
+      <c r="I129" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15</v>
+      </c>
+      <c r="H130" t="n">
+        <v>31</v>
+      </c>
+      <c r="I130" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G3" t="n">
-        <v>480.1</v>
+        <v>476.1</v>
       </c>
       <c r="H3" t="n">
-        <v>924.7</v>
+        <v>920.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1659.2</v>
+        <v>1645.3</v>
       </c>
     </row>
     <row r="4">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G8" t="n">
-        <v>151.14</v>
+        <v>137.1</v>
       </c>
       <c r="H8" t="n">
-        <v>151.14</v>
+        <v>137.1</v>
       </c>
       <c r="I8" t="n">
-        <v>151.14</v>
+        <v>137.1</v>
       </c>
     </row>
     <row r="9">
@@ -772,19 +772,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G9" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H9" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="I9" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -800,28 +800,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>30.1</v>
+        <v>34.3</v>
       </c>
       <c r="H10" t="n">
-        <v>47</v>
+        <v>56.09999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>47</v>
+        <v>56.09999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G11" t="n">
         <v>362.7</v>
@@ -886,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.28</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>6.640000000000001</v>
+        <v>4.78</v>
       </c>
       <c r="I12" t="n">
-        <v>13.72</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="13">
@@ -957,19 +957,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F14" t="n">
-        <v>1737</v>
+        <v>2017</v>
       </c>
       <c r="G14" t="n">
-        <v>2300</v>
+        <v>2501</v>
       </c>
       <c r="H14" t="n">
-        <v>3963</v>
+        <v>4392</v>
       </c>
       <c r="I14" t="n">
-        <v>3963</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="15">
@@ -994,19 +994,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G15" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H15" t="n">
-        <v>259</v>
+        <v>267.1</v>
       </c>
       <c r="I15" t="n">
-        <v>390.3</v>
+        <v>398.4</v>
       </c>
     </row>
     <row r="16">
@@ -1111,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>11.48</v>
+        <v>11.52</v>
       </c>
       <c r="H18" t="n">
-        <v>22.72</v>
+        <v>22.76</v>
       </c>
       <c r="I18" t="n">
-        <v>30.52</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="19">
@@ -1145,16 +1145,16 @@
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" t="n">
-        <v>180.5</v>
+        <v>180.2</v>
       </c>
       <c r="H19" t="n">
-        <v>332.5</v>
+        <v>347.4</v>
       </c>
       <c r="I19" t="n">
-        <v>394.5</v>
+        <v>420.4</v>
       </c>
     </row>
     <row r="20">
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F21" t="n">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="G21" t="n">
         <v>479.7</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="G23" t="n">
-        <v>296.4</v>
+        <v>234.08</v>
       </c>
       <c r="H23" t="n">
-        <v>671.9</v>
+        <v>484.5400000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1276.9</v>
+        <v>971.1600000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1412,28 +1412,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>155</v>
-      </c>
-      <c r="F26" t="n">
-        <v>155</v>
-      </c>
-      <c r="G26" t="n">
-        <v>184</v>
-      </c>
-      <c r="H26" t="n">
-        <v>184</v>
-      </c>
-      <c r="I26" t="n">
-        <v>184</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1495,19 +1505,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G28" t="n">
-        <v>325</v>
+        <v>324.2</v>
       </c>
       <c r="H28" t="n">
-        <v>618.8</v>
+        <v>618</v>
       </c>
       <c r="I28" t="n">
-        <v>618.8</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29">
@@ -1532,19 +1542,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
-        <v>113.02</v>
+        <v>101</v>
       </c>
       <c r="H29" t="n">
-        <v>113.02</v>
+        <v>101</v>
       </c>
       <c r="I29" t="n">
-        <v>113.02</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1572,16 +1582,16 @@
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>37.10000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="H30" t="n">
-        <v>76.20000000000002</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>147.3</v>
+        <v>148.58</v>
       </c>
     </row>
     <row r="31">
@@ -1643,19 +1653,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F32" t="n">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="G32" t="n">
         <v>390</v>
       </c>
       <c r="H32" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I32" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33">
@@ -1671,28 +1681,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F33" t="n">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="G33" t="n">
-        <v>442.8</v>
+        <v>442.4</v>
       </c>
       <c r="H33" t="n">
-        <v>862.6</v>
+        <v>840.7</v>
       </c>
       <c r="I33" t="n">
-        <v>978.6</v>
+        <v>909.7</v>
       </c>
     </row>
     <row r="34">
@@ -1708,28 +1718,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>7.28</v>
+        <v>7.56</v>
       </c>
       <c r="H34" t="n">
-        <v>15.12</v>
+        <v>15.4</v>
       </c>
       <c r="I34" t="n">
-        <v>26.6</v>
+        <v>24.92000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1848,19 +1858,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.940000000000001</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>5.700000000000001</v>
+        <v>4.98</v>
       </c>
       <c r="I37" t="n">
-        <v>9.84</v>
+        <v>9.119999999999997</v>
       </c>
     </row>
     <row r="38">
@@ -1876,28 +1886,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G38" t="n">
-        <v>46.8</v>
+        <v>48.10000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>91</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1922,10 +1932,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="G39" t="n">
         <v>1020.5</v>
@@ -2006,19 +2016,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>12.24</v>
+        <v>8.280000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>23.44</v>
+        <v>14.68</v>
       </c>
       <c r="I41" t="n">
-        <v>33.86000000000001</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="42">
@@ -2143,13 +2153,13 @@
         <v>35</v>
       </c>
       <c r="G44" t="n">
-        <v>35.58</v>
+        <v>35.78</v>
       </c>
       <c r="H44" t="n">
-        <v>71.62</v>
+        <v>72.12</v>
       </c>
       <c r="I44" t="n">
-        <v>139.22</v>
+        <v>140.52</v>
       </c>
     </row>
     <row r="45">
@@ -2249,12 +2259,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2264,13 +2274,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="H47" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="I47" t="n">
-        <v>4.059999999999999</v>
+        <v>4.040000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2301,13 +2311,13 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3.52</v>
+        <v>3.94</v>
       </c>
       <c r="H48" t="n">
-        <v>6.98</v>
+        <v>7.58</v>
       </c>
       <c r="I48" t="n">
-        <v>13.38</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="49">
@@ -2335,16 +2345,16 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G49" t="n">
-        <v>31.32</v>
+        <v>36.5</v>
       </c>
       <c r="H49" t="n">
-        <v>59.06</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>111.18</v>
+        <v>129.8</v>
       </c>
     </row>
     <row r="50">
@@ -2369,19 +2379,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F50" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G50" t="n">
-        <v>485.3000000000001</v>
+        <v>486.3000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>942.1</v>
+        <v>944.1</v>
       </c>
       <c r="I50" t="n">
-        <v>1190.4</v>
+        <v>1192.4</v>
       </c>
     </row>
     <row r="51">
@@ -2409,16 +2419,16 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G51" t="n">
-        <v>197.1</v>
+        <v>198.9</v>
       </c>
       <c r="H51" t="n">
-        <v>367.1</v>
+        <v>352.9</v>
       </c>
       <c r="I51" t="n">
-        <v>512.1</v>
+        <v>510.9</v>
       </c>
     </row>
     <row r="52">
@@ -2452,10 +2462,10 @@
         <v>1.2</v>
       </c>
       <c r="H52" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I52" t="n">
-        <v>2.660000000000001</v>
+        <v>2.600000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2517,19 +2527,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
+        <v>63</v>
+      </c>
+      <c r="G54" t="n">
         <v>85</v>
       </c>
-      <c r="G54" t="n">
-        <v>101</v>
-      </c>
       <c r="H54" t="n">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="I54" t="n">
-        <v>292</v>
+        <v>241.7</v>
       </c>
     </row>
     <row r="55">
@@ -2545,38 +2555,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="56">
@@ -2604,16 +2604,16 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="H56" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="I56" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="57">
@@ -2722,19 +2722,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H59" t="n">
-        <v>100.7</v>
+        <v>102.7</v>
       </c>
       <c r="I59" t="n">
-        <v>112.4</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="60">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G61" t="n">
-        <v>96.2</v>
+        <v>58.84</v>
       </c>
       <c r="H61" t="n">
-        <v>170.9</v>
+        <v>121.06</v>
       </c>
       <c r="I61" t="n">
-        <v>286.4</v>
+        <v>243.16</v>
       </c>
     </row>
     <row r="62">
@@ -2833,19 +2833,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F62" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G62" t="n">
-        <v>356.2</v>
+        <v>353.9</v>
       </c>
       <c r="H62" t="n">
-        <v>676</v>
+        <v>673.7</v>
       </c>
       <c r="I62" t="n">
-        <v>750.1</v>
+        <v>747.8000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2910,16 +2910,16 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>49.7</v>
+        <v>50.7</v>
       </c>
       <c r="H64" t="n">
-        <v>83.40000000000001</v>
+        <v>86.10000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>83.40000000000001</v>
+        <v>86.10000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2935,28 +2935,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>10.4</v>
+        <v>13.16</v>
       </c>
       <c r="H65" t="n">
-        <v>20.42</v>
+        <v>21.38</v>
       </c>
       <c r="I65" t="n">
-        <v>30.28</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="66">
@@ -3037,10 +3037,10 @@
         <v>98.8</v>
       </c>
       <c r="H67" t="n">
-        <v>209.3</v>
+        <v>209</v>
       </c>
       <c r="I67" t="n">
-        <v>414.3</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68">
@@ -3103,28 +3103,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G69" t="n">
-        <v>151.8</v>
+        <v>179.4</v>
       </c>
       <c r="H69" t="n">
-        <v>151.8</v>
+        <v>221</v>
       </c>
       <c r="I69" t="n">
-        <v>151.8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70">
@@ -3149,19 +3149,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F70" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G70" t="n">
-        <v>123.5</v>
+        <v>111.6</v>
       </c>
       <c r="H70" t="n">
-        <v>235.2</v>
+        <v>229.9</v>
       </c>
       <c r="I70" t="n">
-        <v>262.5000000000001</v>
+        <v>257.2</v>
       </c>
     </row>
     <row r="71">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G71" t="n">
         <v>153.4</v>
       </c>
       <c r="H71" t="n">
-        <v>309.4</v>
+        <v>309.1</v>
       </c>
       <c r="I71" t="n">
-        <v>499.1999999999999</v>
+        <v>498.9</v>
       </c>
     </row>
     <row r="72">
@@ -3214,28 +3214,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F72" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G72" t="n">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="H72" t="n">
-        <v>565</v>
+        <v>734</v>
       </c>
       <c r="I72" t="n">
-        <v>565</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73">
@@ -3288,28 +3288,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>23.84</v>
+        <v>24.04</v>
       </c>
       <c r="H74" t="n">
-        <v>50.48</v>
+        <v>51.1</v>
       </c>
       <c r="I74" t="n">
-        <v>99.75999999999999</v>
+        <v>106.76</v>
       </c>
     </row>
     <row r="75">
@@ -3343,10 +3343,10 @@
         <v>84.5</v>
       </c>
       <c r="H75" t="n">
-        <v>167.1</v>
+        <v>169</v>
       </c>
       <c r="I75" t="n">
-        <v>222.1</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="76">
@@ -3455,19 +3455,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="H78" t="n">
-        <v>10.4</v>
+        <v>11.36</v>
       </c>
       <c r="I78" t="n">
-        <v>16.28</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="79">
@@ -3529,19 +3529,19 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G80" t="n">
-        <v>34</v>
+        <v>45.8</v>
       </c>
       <c r="H80" t="n">
-        <v>56.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>94.19999999999999</v>
+        <v>154.9</v>
       </c>
     </row>
     <row r="81">
@@ -3557,28 +3557,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>34</v>
-      </c>
-      <c r="G81" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="H81" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46.8</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3603,19 +3613,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F82" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G82" t="n">
-        <v>292.2</v>
+        <v>297.6</v>
       </c>
       <c r="H82" t="n">
-        <v>588.6</v>
+        <v>594</v>
       </c>
       <c r="I82" t="n">
-        <v>934.3999999999999</v>
+        <v>939.7999999999998</v>
       </c>
     </row>
     <row r="83">
@@ -3631,28 +3641,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="F83" t="n">
-        <v>1618</v>
+        <v>1656</v>
       </c>
       <c r="G83" t="n">
-        <v>2057.9</v>
+        <v>1993.9</v>
       </c>
       <c r="H83" t="n">
-        <v>3998.8</v>
+        <v>3719.4</v>
       </c>
       <c r="I83" t="n">
-        <v>4911.400000000001</v>
+        <v>4062.4</v>
       </c>
     </row>
     <row r="84">
@@ -3774,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
         <v>9.600000000000001</v>
@@ -3836,28 +3846,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="G88" t="n">
-        <v>347.1</v>
+        <v>306.1</v>
       </c>
       <c r="H88" t="n">
-        <v>686.4000000000001</v>
+        <v>560.3</v>
       </c>
       <c r="I88" t="n">
-        <v>1007.5</v>
+        <v>682.9</v>
       </c>
     </row>
     <row r="89">
@@ -3967,28 +3977,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="F91" t="n">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="G91" t="n">
-        <v>618.8</v>
+        <v>613.6</v>
       </c>
       <c r="H91" t="n">
-        <v>931.6999999999999</v>
+        <v>1184.3</v>
       </c>
       <c r="I91" t="n">
-        <v>1378.4</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="92">
@@ -4107,19 +4117,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="G94" t="n">
-        <v>452.6</v>
+        <v>489.1</v>
       </c>
       <c r="H94" t="n">
-        <v>710.9000000000001</v>
+        <v>968.8</v>
       </c>
       <c r="I94" t="n">
-        <v>772.5000000000001</v>
+        <v>1083.2</v>
       </c>
     </row>
     <row r="95">
@@ -4144,19 +4154,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G95" t="n">
-        <v>221</v>
+        <v>217.2</v>
       </c>
       <c r="H95" t="n">
-        <v>431.6</v>
+        <v>427.8</v>
       </c>
       <c r="I95" t="n">
-        <v>533</v>
+        <v>529.2</v>
       </c>
     </row>
     <row r="96">
@@ -4172,28 +4182,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G96" t="n">
-        <v>50.98</v>
+        <v>35.7</v>
       </c>
       <c r="H96" t="n">
-        <v>62.28</v>
+        <v>35.7</v>
       </c>
       <c r="I96" t="n">
-        <v>62.28</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="97">
@@ -4209,28 +4219,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="F97" t="n">
-        <v>1261</v>
+        <v>805</v>
       </c>
       <c r="G97" t="n">
-        <v>1324.7</v>
+        <v>826.6</v>
       </c>
       <c r="H97" t="n">
-        <v>2575.3</v>
+        <v>1749.8</v>
       </c>
       <c r="I97" t="n">
-        <v>3464.5</v>
+        <v>1749.8</v>
       </c>
     </row>
     <row r="98">
@@ -4246,28 +4256,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F98" t="n">
-        <v>1123</v>
+        <v>1150</v>
       </c>
       <c r="G98" t="n">
-        <v>1330.1</v>
+        <v>1177.3</v>
       </c>
       <c r="H98" t="n">
-        <v>2634</v>
+        <v>2006.9</v>
       </c>
       <c r="I98" t="n">
-        <v>4456.599999999999</v>
+        <v>2919.199999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4292,10 +4302,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="G99" t="n">
         <v>958.1</v>
@@ -4320,28 +4330,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F100" t="n">
-        <v>274</v>
+        <v>418</v>
       </c>
       <c r="G100" t="n">
-        <v>344.7</v>
+        <v>452.4</v>
       </c>
       <c r="H100" t="n">
-        <v>717.5</v>
+        <v>874.7</v>
       </c>
       <c r="I100" t="n">
-        <v>717.5</v>
+        <v>977.4000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4357,28 +4367,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F101" t="n">
-        <v>199</v>
+        <v>357</v>
       </c>
       <c r="G101" t="n">
-        <v>242.8</v>
+        <v>366.6</v>
       </c>
       <c r="H101" t="n">
-        <v>527.9000000000001</v>
+        <v>731.9000000000001</v>
       </c>
       <c r="I101" t="n">
-        <v>623.8000000000001</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="102">
@@ -4403,19 +4413,19 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F102" t="n">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="G102" t="n">
-        <v>614.7</v>
+        <v>647.2</v>
       </c>
       <c r="H102" t="n">
-        <v>1243.5</v>
+        <v>1299.04</v>
       </c>
       <c r="I102" t="n">
-        <v>1387.04</v>
+        <v>1465.5</v>
       </c>
     </row>
     <row r="103">
@@ -4468,28 +4478,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G104" t="n">
-        <v>131.6</v>
+        <v>167.86</v>
       </c>
       <c r="H104" t="n">
-        <v>262.4999999999999</v>
+        <v>338</v>
       </c>
       <c r="I104" t="n">
-        <v>394.0999999999999</v>
+        <v>551.36</v>
       </c>
     </row>
     <row r="105">
@@ -4514,19 +4524,19 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="F105" t="n">
-        <v>627</v>
+        <v>556</v>
       </c>
       <c r="G105" t="n">
-        <v>683.8</v>
+        <v>661.9</v>
       </c>
       <c r="H105" t="n">
-        <v>845</v>
+        <v>792.9</v>
       </c>
       <c r="I105" t="n">
-        <v>845</v>
+        <v>792.9</v>
       </c>
     </row>
     <row r="106">
@@ -4551,10 +4561,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F106" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G106" t="n">
         <v>118.3</v>
@@ -4600,7 +4610,7 @@
         <v>18.76</v>
       </c>
       <c r="I107" t="n">
-        <v>26.98</v>
+        <v>27.88000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4616,28 +4626,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F108" t="n">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="G108" t="n">
-        <v>129.5</v>
+        <v>241.8</v>
       </c>
       <c r="H108" t="n">
-        <v>256.9</v>
+        <v>479.7</v>
       </c>
       <c r="I108" t="n">
-        <v>348.6</v>
+        <v>708.5</v>
       </c>
     </row>
     <row r="109">
@@ -4709,10 +4719,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F110" t="n">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="G110" t="n">
         <v>462.8</v>
@@ -4746,19 +4756,19 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G111" t="n">
-        <v>203.8</v>
+        <v>223.6</v>
       </c>
       <c r="H111" t="n">
-        <v>420.9</v>
+        <v>440.7</v>
       </c>
       <c r="I111" t="n">
-        <v>627.6000000000001</v>
+        <v>647.4000000000001</v>
       </c>
     </row>
     <row r="112">

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,75 +474,5434 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>374</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>448.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>763.8</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>763.8</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>341</v>
+      </c>
+      <c r="G9" t="n">
+        <v>457.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>863.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>863.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>252</v>
+      </c>
+      <c r="G11" t="n">
+        <v>327.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>631.8000000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>903.5000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>W51</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>395</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2252</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2474</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4340</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>106</v>
+      </c>
+      <c r="G15" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>266</v>
+      </c>
+      <c r="I15" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>108</v>
+      </c>
+      <c r="G19" t="n">
+        <v>133</v>
+      </c>
+      <c r="H19" t="n">
+        <v>133</v>
+      </c>
+      <c r="I19" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>53</v>
+      </c>
+      <c r="F21" t="n">
+        <v>399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>464.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>687.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>687.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.000000000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>33</v>
+      </c>
+      <c r="F23" t="n">
+        <v>206</v>
+      </c>
+      <c r="G23" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>464.38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>925.0600000000002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" t="n">
+        <v>267</v>
+      </c>
+      <c r="G28" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>308.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>47</v>
+      </c>
+      <c r="G29" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="I29" t="n">
+        <v>69.56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>54.96000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>106.66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>406</v>
+      </c>
+      <c r="G32" t="n">
+        <v>406</v>
+      </c>
+      <c r="H32" t="n">
+        <v>406</v>
+      </c>
+      <c r="I32" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>2025-04-13</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E33" t="n">
+        <v>19</v>
+      </c>
+      <c r="F33" t="n">
+        <v>295</v>
+      </c>
+      <c r="G33" t="n">
+        <v>364.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>708.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>855.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H34" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+      <c r="G38" t="n">
+        <v>48.10000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48.02000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>21.26000000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42.46000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>78.46000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H45" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I45" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>19</v>
+      </c>
+      <c r="F46" t="n">
+        <v>282</v>
+      </c>
+      <c r="G46" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>698.9000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>866.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.899999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.540000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="H49" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="I49" t="n">
+        <v>79.31999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>96</v>
+      </c>
+      <c r="F50" t="n">
+        <v>211</v>
+      </c>
+      <c r="G50" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>245.6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>36</v>
+      </c>
+      <c r="F53" t="n">
+        <v>137</v>
+      </c>
+      <c r="G53" t="n">
+        <v>139</v>
+      </c>
+      <c r="H53" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>17</v>
+      </c>
+      <c r="F54" t="n">
+        <v>74</v>
+      </c>
+      <c r="G54" t="n">
+        <v>77</v>
+      </c>
+      <c r="H54" t="n">
+        <v>140</v>
+      </c>
+      <c r="I54" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>17</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H56" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>12</v>
+      </c>
+      <c r="F59" t="n">
+        <v>61</v>
+      </c>
+      <c r="G59" t="n">
+        <v>66.30000000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>130</v>
+      </c>
+      <c r="I59" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" t="n">
+        <v>43</v>
+      </c>
+      <c r="G60" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>163.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28</v>
+      </c>
+      <c r="G61" t="n">
+        <v>34.60000000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>68.80000000000001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>136.08</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>178</v>
+      </c>
+      <c r="G62" t="n">
+        <v>211.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>211.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H64" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>11</v>
+      </c>
+      <c r="F67" t="n">
+        <v>91</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>213</v>
+      </c>
+      <c r="I67" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>55</v>
+      </c>
+      <c r="F69" t="n">
+        <v>255</v>
+      </c>
+      <c r="G69" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>509.6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>509.6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>28</v>
+      </c>
+      <c r="F71" t="n">
+        <v>144</v>
+      </c>
+      <c r="G71" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>157.3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>262</v>
+      </c>
+      <c r="G72" t="n">
+        <v>344</v>
+      </c>
+      <c r="H72" t="n">
+        <v>505</v>
+      </c>
+      <c r="I72" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>24</v>
+      </c>
+      <c r="F73" t="n">
+        <v>108</v>
+      </c>
+      <c r="G73" t="n">
+        <v>112.08</v>
+      </c>
+      <c r="H73" t="n">
+        <v>139.84</v>
+      </c>
+      <c r="I73" t="n">
+        <v>139.84</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>21</v>
+      </c>
+      <c r="G74" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="H74" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="I74" t="n">
+        <v>96.58000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>12</v>
+      </c>
+      <c r="F75" t="n">
+        <v>51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>157.24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>106</v>
+      </c>
+      <c r="F77" t="n">
+        <v>355</v>
+      </c>
+      <c r="G77" t="n">
+        <v>379</v>
+      </c>
+      <c r="H77" t="n">
+        <v>379</v>
+      </c>
+      <c r="I77" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>56</v>
+      </c>
+      <c r="G79" t="n">
+        <v>112</v>
+      </c>
+      <c r="H79" t="n">
+        <v>112</v>
+      </c>
+      <c r="I79" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>50</v>
+      </c>
+      <c r="G80" t="n">
+        <v>50.64000000000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I80" t="n">
+        <v>197.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>21</v>
+      </c>
+      <c r="G81" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="H81" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="I81" t="n">
+        <v>32.52</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>12</v>
+      </c>
+      <c r="F82" t="n">
+        <v>158</v>
+      </c>
+      <c r="G82" t="n">
+        <v>186</v>
+      </c>
+      <c r="H82" t="n">
+        <v>321.2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>321.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>224</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1086</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1217.9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1217.9</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1217.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8.779999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>27</v>
+      </c>
+      <c r="F87" t="n">
+        <v>179</v>
+      </c>
+      <c r="G87" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>349.7</v>
+      </c>
+      <c r="I87" t="n">
+        <v>349.7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>58</v>
+      </c>
+      <c r="F88" t="n">
+        <v>212</v>
+      </c>
+      <c r="G88" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>349</v>
+      </c>
+      <c r="G91" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>865.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>99</v>
+      </c>
+      <c r="F94" t="n">
+        <v>312</v>
+      </c>
+      <c r="G94" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>319.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>23</v>
+      </c>
+      <c r="F95" t="n">
+        <v>155</v>
+      </c>
+      <c r="G95" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>348.4</v>
+      </c>
+      <c r="I95" t="n">
+        <v>348.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>11</v>
+      </c>
+      <c r="F96" t="n">
+        <v>62</v>
+      </c>
+      <c r="G96" t="n">
+        <v>68</v>
+      </c>
+      <c r="H96" t="n">
+        <v>136</v>
+      </c>
+      <c r="I96" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>113</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1242.8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2431</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>174</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1144</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1305.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2545.4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3988.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>77</v>
+      </c>
+      <c r="F99" t="n">
+        <v>805</v>
+      </c>
+      <c r="G99" t="n">
+        <v>982.8000000000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1899.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2346.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>64</v>
+      </c>
+      <c r="F100" t="n">
+        <v>222</v>
+      </c>
+      <c r="G100" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="H100" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>255.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>71</v>
+      </c>
+      <c r="F101" t="n">
+        <v>354</v>
+      </c>
+      <c r="G101" t="n">
+        <v>370.5000000000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>746.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1011.4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>282</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1143</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1172.6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2449.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>25</v>
+      </c>
+      <c r="F103" t="n">
+        <v>181</v>
+      </c>
+      <c r="G103" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>411.7</v>
+      </c>
+      <c r="I103" t="n">
+        <v>470.2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>26</v>
+      </c>
+      <c r="F104" t="n">
+        <v>160</v>
+      </c>
+      <c r="G104" t="n">
+        <v>165</v>
+      </c>
+      <c r="H104" t="n">
+        <v>331.1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>437.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>83</v>
+      </c>
+      <c r="F105" t="n">
+        <v>213</v>
+      </c>
+      <c r="G105" t="n">
+        <v>262.28</v>
+      </c>
+      <c r="H105" t="n">
+        <v>262.28</v>
+      </c>
+      <c r="I105" t="n">
+        <v>262.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>113</v>
+      </c>
+      <c r="G106" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>182</v>
+      </c>
+      <c r="I106" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.400000000000002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>133</v>
+      </c>
+      <c r="G108" t="n">
+        <v>169.18</v>
+      </c>
+      <c r="H108" t="n">
+        <v>337.58</v>
+      </c>
+      <c r="I108" t="n">
+        <v>504.16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H109" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="I109" t="n">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>48</v>
+      </c>
+      <c r="F110" t="n">
+        <v>292</v>
+      </c>
+      <c r="G110" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>645.36</v>
+      </c>
+      <c r="I110" t="n">
+        <v>874.36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>26</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26</v>
+      </c>
+      <c r="G111" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>23</v>
+      </c>
+      <c r="F112" t="n">
+        <v>110</v>
+      </c>
+      <c r="G112" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="H112" t="n">
+        <v>234</v>
+      </c>
+      <c r="I112" t="n">
+        <v>261.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>38</v>
+      </c>
+      <c r="G113" t="n">
+        <v>43.40000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>52.40000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7</v>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>45</v>
+      </c>
+      <c r="G117" t="n">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>154.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21</v>
+      </c>
+      <c r="G121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I121" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>45655</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+      <c r="I122" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>45718</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>32</v>
+      </c>
+      <c r="G123" t="n">
+        <v>38</v>
+      </c>
+      <c r="H123" t="n">
+        <v>86</v>
+      </c>
+      <c r="I123" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="E124" t="n">
+        <v>34</v>
+      </c>
+      <c r="F124" t="n">
+        <v>239</v>
+      </c>
+      <c r="G124" t="n">
+        <v>273</v>
+      </c>
+      <c r="H124" t="n">
+        <v>339</v>
+      </c>
+      <c r="I124" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="E125" t="n">
+        <v>113</v>
+      </c>
+      <c r="F125" t="n">
+        <v>474</v>
+      </c>
+      <c r="G125" t="n">
+        <v>483</v>
+      </c>
+      <c r="H125" t="n">
+        <v>844</v>
+      </c>
+      <c r="I125" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>45788</v>
+      </c>
+      <c r="E126" t="n">
+        <v>17</v>
+      </c>
+      <c r="F126" t="n">
+        <v>148</v>
+      </c>
+      <c r="G126" t="n">
+        <v>174</v>
+      </c>
+      <c r="H126" t="n">
+        <v>263</v>
+      </c>
+      <c r="I126" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>45725</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22</v>
+      </c>
+      <c r="F127" t="n">
+        <v>92</v>
+      </c>
+      <c r="G127" t="n">
+        <v>92</v>
+      </c>
+      <c r="H127" t="n">
+        <v>189</v>
+      </c>
+      <c r="I127" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>45788</v>
+      </c>
+      <c r="E129" t="n">
+        <v>18</v>
+      </c>
+      <c r="F129" t="n">
+        <v>158</v>
+      </c>
+      <c r="G129" t="n">
+        <v>188</v>
+      </c>
+      <c r="H129" t="n">
+        <v>286</v>
+      </c>
+      <c r="I129" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>W21</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="E130" t="n">
+        <v>57</v>
+      </c>
+      <c r="F130" t="n">
+        <v>346</v>
+      </c>
+      <c r="G130" t="n">
+        <v>384</v>
+      </c>
+      <c r="H130" t="n">
+        <v>384</v>
+      </c>
+      <c r="I130" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E132" t="n">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
-        <v>242</v>
-      </c>
-      <c r="G3" t="n">
-        <v>312.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>606.6</v>
+      <c r="F132" t="n">
+        <v>56</v>
+      </c>
+      <c r="G132" t="n">
+        <v>83</v>
+      </c>
+      <c r="H132" t="n">
+        <v>83</v>
+      </c>
+      <c r="I132" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6</v>
+      </c>
+      <c r="G133" t="n">
+        <v>8</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>19</v>
+      </c>
+      <c r="G136" t="n">
+        <v>24</v>
+      </c>
+      <c r="H136" t="n">
+        <v>42</v>
+      </c>
+      <c r="I136" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>39</v>
+      </c>
+      <c r="G137" t="n">
+        <v>43</v>
+      </c>
+      <c r="H137" t="n">
+        <v>77</v>
+      </c>
+      <c r="I137" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>45760</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="n">
+        <v>18</v>
+      </c>
+      <c r="H138" t="n">
+        <v>37</v>
+      </c>
+      <c r="I138" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>45774</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>13</v>
+      </c>
+      <c r="G139" t="n">
+        <v>16</v>
+      </c>
+      <c r="H139" t="n">
+        <v>32</v>
+      </c>
+      <c r="I139" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>21</v>
+      </c>
+      <c r="I140" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -499,13 +499,13 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H2" t="n">
-        <v>5.540000000000001</v>
+        <v>5.78</v>
       </c>
       <c r="I2" t="n">
-        <v>9.26</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
         <v>3.56</v>
       </c>
       <c r="I6" t="n">
-        <v>7.16</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="G9" t="n">
-        <v>457.3</v>
+        <v>346</v>
       </c>
       <c r="H9" t="n">
-        <v>863.3</v>
+        <v>547</v>
       </c>
       <c r="I9" t="n">
-        <v>863.3</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10">
@@ -832,16 +832,16 @@
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="H10" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="I10" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="11">
@@ -909,13 +909,13 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>5.600000000000001</v>
+        <v>5.84</v>
       </c>
       <c r="I12" t="n">
-        <v>11.2</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="13">
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="F14" t="n">
-        <v>2252</v>
+        <v>2381</v>
       </c>
       <c r="G14" t="n">
-        <v>2474</v>
+        <v>2506</v>
       </c>
       <c r="H14" t="n">
-        <v>4340</v>
+        <v>4413.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4340</v>
+        <v>4413.4</v>
       </c>
     </row>
     <row r="15">
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7</v>
+        <v>130</v>
       </c>
       <c r="H15" t="n">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I15" t="n">
-        <v>395</v>
+        <v>390.2</v>
       </c>
     </row>
     <row r="16">
@@ -1052,28 +1052,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9.900000000000002</v>
       </c>
       <c r="I16" t="n">
-        <v>14.48</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="17">
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>7.76</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>15.52</v>
+        <v>15.72</v>
       </c>
       <c r="I18" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="19">
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="G21" t="n">
-        <v>464.8</v>
+        <v>460.8</v>
       </c>
       <c r="H21" t="n">
-        <v>687.1</v>
+        <v>683.1</v>
       </c>
       <c r="I21" t="n">
-        <v>687.1</v>
+        <v>683.1</v>
       </c>
     </row>
     <row r="22">
@@ -1323,16 +1323,16 @@
         <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="G23" t="n">
-        <v>225.3</v>
+        <v>292.5</v>
       </c>
       <c r="H23" t="n">
-        <v>464.38</v>
+        <v>653.9000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>925.0600000000002</v>
+        <v>1155.1</v>
       </c>
     </row>
     <row r="24">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G28" t="n">
         <v>308.1</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G29" t="n">
-        <v>69.56</v>
+        <v>79.64</v>
       </c>
       <c r="H29" t="n">
-        <v>69.56</v>
+        <v>79.64</v>
       </c>
       <c r="I29" t="n">
-        <v>69.56</v>
+        <v>79.64</v>
       </c>
     </row>
     <row r="30">
@@ -1618,10 +1618,10 @@
         <v>27.8</v>
       </c>
       <c r="H30" t="n">
-        <v>54.96000000000001</v>
+        <v>52.96000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>106.66</v>
+        <v>101.46</v>
       </c>
     </row>
     <row r="31">
@@ -1674,28 +1674,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="G32" t="n">
-        <v>406</v>
+        <v>395.6</v>
       </c>
       <c r="H32" t="n">
-        <v>406</v>
+        <v>529.5</v>
       </c>
       <c r="I32" t="n">
-        <v>406</v>
+        <v>529.5</v>
       </c>
     </row>
     <row r="33">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G33" t="n">
-        <v>364.9</v>
+        <v>382.2</v>
       </c>
       <c r="H33" t="n">
-        <v>708.9</v>
+        <v>751.4000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>855.3</v>
+        <v>923.0000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1760,16 +1760,16 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>9.56</v>
+        <v>8.840000000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>16.56</v>
+        <v>15.84</v>
       </c>
       <c r="I34" t="n">
-        <v>26.92</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="35">
@@ -1897,10 +1897,10 @@
         <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I37" t="n">
-        <v>5.68</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
         <v>48.10000000000001</v>
@@ -2068,7 +2068,7 @@
         <v>30.6</v>
       </c>
       <c r="I41" t="n">
-        <v>48.02000000000001</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="42">
@@ -2131,28 +2131,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>13</v>
-      </c>
-      <c r="H43" t="n">
-        <v>13</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2183,13 +2193,13 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>21.26000000000001</v>
+        <v>21.46</v>
       </c>
       <c r="H44" t="n">
-        <v>42.46000000000001</v>
+        <v>42.66</v>
       </c>
       <c r="I44" t="n">
-        <v>78.46000000000001</v>
+        <v>79.86000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2214,19 +2224,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" t="n">
-        <v>13.84</v>
+        <v>14.72</v>
       </c>
       <c r="H45" t="n">
-        <v>23.94</v>
+        <v>24.34</v>
       </c>
       <c r="I45" t="n">
-        <v>23.94</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="46">
@@ -2251,19 +2261,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G46" t="n">
-        <v>352.2</v>
+        <v>356.2</v>
       </c>
       <c r="H46" t="n">
-        <v>698.9000000000001</v>
+        <v>703.3000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>866.6</v>
+        <v>871</v>
       </c>
     </row>
     <row r="47">
@@ -2279,12 +2289,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2294,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2.34</v>
+        <v>1.12</v>
       </c>
       <c r="I47" t="n">
-        <v>3.899999999999999</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="48">
@@ -2331,13 +2341,13 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="H48" t="n">
-        <v>7.540000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="I48" t="n">
-        <v>14.04</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="49">
@@ -2365,16 +2375,16 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>17.84</v>
+        <v>21.56</v>
       </c>
       <c r="H49" t="n">
-        <v>39.64</v>
+        <v>43.36</v>
       </c>
       <c r="I49" t="n">
-        <v>79.31999999999999</v>
+        <v>83.04000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2427,28 +2437,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G51" t="n">
-        <v>133.9</v>
+        <v>123.1</v>
       </c>
       <c r="H51" t="n">
-        <v>245.6</v>
+        <v>195.1</v>
       </c>
       <c r="I51" t="n">
-        <v>245.6</v>
+        <v>195.1</v>
       </c>
     </row>
     <row r="52">
@@ -2476,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="H52" t="n">
-        <v>2.6</v>
+        <v>3.44</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>4.739999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2513,16 +2523,16 @@
         <v>36</v>
       </c>
       <c r="F53" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G53" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H53" t="n">
-        <v>279.3</v>
+        <v>282.4</v>
       </c>
       <c r="I53" t="n">
-        <v>533</v>
+        <v>540.2</v>
       </c>
     </row>
     <row r="54">
@@ -2547,19 +2557,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F54" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>77</v>
+        <v>101.4</v>
       </c>
       <c r="H54" t="n">
-        <v>140</v>
+        <v>196.6</v>
       </c>
       <c r="I54" t="n">
-        <v>207</v>
+        <v>304.6</v>
       </c>
     </row>
     <row r="55">
@@ -2631,19 +2641,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>17.68</v>
+        <v>17.84</v>
       </c>
       <c r="H56" t="n">
-        <v>30.54</v>
+        <v>30.7</v>
       </c>
       <c r="I56" t="n">
-        <v>30.54</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="57">
@@ -2789,19 +2799,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>42.8</v>
+        <v>44.8</v>
       </c>
       <c r="H60" t="n">
-        <v>85.7</v>
+        <v>87.7</v>
       </c>
       <c r="I60" t="n">
-        <v>163.7</v>
+        <v>165.7</v>
       </c>
     </row>
     <row r="61">
@@ -2829,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G61" t="n">
-        <v>34.60000000000001</v>
+        <v>32.38000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>68.80000000000001</v>
+        <v>66.58000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>136.08</v>
+        <v>134.88</v>
       </c>
     </row>
     <row r="62">
@@ -2854,28 +2864,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G62" t="n">
-        <v>211.9</v>
+        <v>287.3000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>211.9</v>
+        <v>287.3000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>211.9</v>
+        <v>287.3000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2891,28 +2901,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2937,10 +2957,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G64" t="n">
         <v>11.34</v>
@@ -2983,10 +3003,10 @@
         <v>11.72</v>
       </c>
       <c r="H65" t="n">
-        <v>20.52</v>
+        <v>22.72</v>
       </c>
       <c r="I65" t="n">
-        <v>34.86</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="66">
@@ -3011,10 +3031,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" t="n">
         <v>20.8</v>
@@ -3060,7 +3080,7 @@
         <v>213</v>
       </c>
       <c r="I67" t="n">
-        <v>422</v>
+        <v>422.3</v>
       </c>
     </row>
     <row r="68">
@@ -3132,10 +3152,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G69" t="n">
         <v>267.8</v>
@@ -3169,10 +3189,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F70" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>26</v>
@@ -3206,10 +3226,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F71" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>157.3</v>
@@ -3243,19 +3263,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F72" t="n">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="G72" t="n">
-        <v>344</v>
+        <v>354.9</v>
       </c>
       <c r="H72" t="n">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="I72" t="n">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73">
@@ -3271,28 +3291,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G73" t="n">
-        <v>112.08</v>
+        <v>119.8</v>
       </c>
       <c r="H73" t="n">
-        <v>139.84</v>
+        <v>223.4</v>
       </c>
       <c r="I73" t="n">
-        <v>139.84</v>
+        <v>248.6</v>
       </c>
     </row>
     <row r="74">
@@ -3357,16 +3377,16 @@
         <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G75" t="n">
-        <v>51.8</v>
+        <v>53.16</v>
       </c>
       <c r="H75" t="n">
-        <v>100.2</v>
+        <v>104.76</v>
       </c>
       <c r="I75" t="n">
-        <v>157.24</v>
+        <v>169.26</v>
       </c>
     </row>
     <row r="76">
@@ -3429,28 +3449,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F77" t="n">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="G77" t="n">
-        <v>379</v>
+        <v>643.5</v>
       </c>
       <c r="H77" t="n">
-        <v>379</v>
+        <v>643.5</v>
       </c>
       <c r="I77" t="n">
-        <v>379</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="78">
@@ -3512,19 +3532,19 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F79" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="G79" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H79" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I79" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
@@ -3586,19 +3606,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G81" t="n">
-        <v>25.74</v>
+        <v>26.82</v>
       </c>
       <c r="H81" t="n">
-        <v>32.52</v>
+        <v>33.6</v>
       </c>
       <c r="I81" t="n">
-        <v>32.52</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="82">
@@ -3614,28 +3634,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F82" t="n">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="G82" t="n">
-        <v>186</v>
+        <v>297.7</v>
       </c>
       <c r="H82" t="n">
-        <v>321.2</v>
+        <v>581.1</v>
       </c>
       <c r="I82" t="n">
-        <v>321.2</v>
+        <v>647.4</v>
       </c>
     </row>
     <row r="83">
@@ -3651,28 +3671,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>1086</v>
+        <v>1304</v>
       </c>
       <c r="G83" t="n">
-        <v>1217.9</v>
+        <v>1753.7</v>
       </c>
       <c r="H83" t="n">
-        <v>1217.9</v>
+        <v>1753.7</v>
       </c>
       <c r="I83" t="n">
-        <v>1217.9</v>
+        <v>1753.7</v>
       </c>
     </row>
     <row r="84">
@@ -3782,28 +3802,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>8.779999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H86" t="n">
-        <v>8.779999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="I86" t="n">
-        <v>8.779999999999999</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="87">
@@ -3828,10 +3848,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>204.1</v>
@@ -3856,28 +3876,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F88" t="n">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="G88" t="n">
-        <v>231.4</v>
+        <v>140</v>
       </c>
       <c r="H88" t="n">
-        <v>231.4</v>
+        <v>140</v>
       </c>
       <c r="I88" t="n">
-        <v>231.4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
@@ -3996,10 +4016,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G91" t="n">
         <v>445.9</v>
@@ -4127,10 +4147,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F94" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G94" t="n">
         <v>319.8</v>
@@ -4155,28 +4175,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G95" t="n">
-        <v>178.1</v>
+        <v>175.5</v>
       </c>
       <c r="H95" t="n">
-        <v>348.4</v>
+        <v>244.1</v>
       </c>
       <c r="I95" t="n">
-        <v>348.4</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="96">
@@ -4192,28 +4212,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G96" t="n">
-        <v>68</v>
+        <v>54.60000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>136</v>
+        <v>80.20000000000002</v>
       </c>
       <c r="I96" t="n">
-        <v>136</v>
+        <v>80.20000000000002</v>
       </c>
     </row>
     <row r="97">
@@ -4229,28 +4249,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F97" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G97" t="n">
-        <v>1242.8</v>
+        <v>1072.7</v>
       </c>
       <c r="H97" t="n">
-        <v>2431</v>
+        <v>1965.6</v>
       </c>
       <c r="I97" t="n">
-        <v>2995.2</v>
+        <v>2242.5</v>
       </c>
     </row>
     <row r="98">
@@ -4275,10 +4295,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F98" t="n">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="G98" t="n">
         <v>1305.2</v>
@@ -4312,10 +4332,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F99" t="n">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G99" t="n">
         <v>982.8000000000001</v>
@@ -4349,19 +4369,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F100" t="n">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G100" t="n">
-        <v>255.9</v>
+        <v>335</v>
       </c>
       <c r="H100" t="n">
-        <v>255.9</v>
+        <v>335</v>
       </c>
       <c r="I100" t="n">
-        <v>255.9</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101">
@@ -4386,10 +4406,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F101" t="n">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="G101" t="n">
         <v>370.5000000000001</v>
@@ -4423,19 +4443,19 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="F102" t="n">
-        <v>1143</v>
+        <v>971</v>
       </c>
       <c r="G102" t="n">
-        <v>1172.6</v>
+        <v>1092.3</v>
       </c>
       <c r="H102" t="n">
-        <v>2192.4</v>
+        <v>1951.9</v>
       </c>
       <c r="I102" t="n">
-        <v>2449.8</v>
+        <v>2209.3</v>
       </c>
     </row>
     <row r="103">
@@ -4451,28 +4471,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
-        <v>222.2</v>
+        <v>249.6</v>
       </c>
       <c r="H103" t="n">
-        <v>411.7</v>
+        <v>504.4</v>
       </c>
       <c r="I103" t="n">
-        <v>470.2</v>
+        <v>683.8</v>
       </c>
     </row>
     <row r="104">
@@ -4488,28 +4508,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="G104" t="n">
-        <v>165</v>
+        <v>146.26</v>
       </c>
       <c r="H104" t="n">
-        <v>331.1</v>
+        <v>293.28</v>
       </c>
       <c r="I104" t="n">
-        <v>437.7</v>
+        <v>329.58</v>
       </c>
     </row>
     <row r="105">
@@ -4571,19 +4591,19 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F106" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G106" t="n">
-        <v>123.5</v>
+        <v>122.3</v>
       </c>
       <c r="H106" t="n">
-        <v>182</v>
+        <v>180.8</v>
       </c>
       <c r="I106" t="n">
-        <v>182</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="107">
@@ -4614,13 +4634,13 @@
         <v>7</v>
       </c>
       <c r="G107" t="n">
-        <v>7.400000000000002</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>14.46</v>
+        <v>14.64</v>
       </c>
       <c r="I107" t="n">
-        <v>19.88</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="108">
@@ -4645,19 +4665,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F108" t="n">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="G108" t="n">
-        <v>169.18</v>
+        <v>229.9</v>
       </c>
       <c r="H108" t="n">
-        <v>337.58</v>
+        <v>463.9</v>
       </c>
       <c r="I108" t="n">
-        <v>504.16</v>
+        <v>688.8000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4682,10 +4702,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" t="n">
         <v>22.28</v>
@@ -4719,19 +4739,19 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F110" t="n">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="G110" t="n">
         <v>324.5</v>
       </c>
       <c r="H110" t="n">
-        <v>645.36</v>
+        <v>639.84</v>
       </c>
       <c r="I110" t="n">
-        <v>874.36</v>
+        <v>844.9599999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4747,28 +4767,38 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>26</v>
-      </c>
-      <c r="F111" t="n">
-        <v>26</v>
-      </c>
-      <c r="G111" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>48.1</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -4793,10 +4823,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F112" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G112" t="n">
         <v>118.3</v>
@@ -4821,28 +4851,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113" t="n">
-        <v>43.40000000000001</v>
+        <v>52</v>
       </c>
       <c r="H113" t="n">
-        <v>52.40000000000001</v>
+        <v>87.10000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>52.40000000000001</v>
+        <v>87.10000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4905,28 +4935,38 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>5</v>
-      </c>
-      <c r="G115" t="n">
-        <v>7</v>
-      </c>
-      <c r="H115" t="n">
-        <v>7</v>
-      </c>
-      <c r="I115" t="n">
-        <v>7</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4989,28 +5029,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G117" t="n">
-        <v>55.90000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="H117" t="n">
-        <v>113.1</v>
+        <v>114.4</v>
       </c>
       <c r="I117" t="n">
-        <v>154.7</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="118">
@@ -5167,28 +5207,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>25.9</v>
+        <v>12.6</v>
       </c>
       <c r="H121" t="n">
-        <v>25.9</v>
+        <v>12.6</v>
       </c>
       <c r="I121" t="n">
-        <v>25.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="122">

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -484,28 +484,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.78</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.78</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>9.379999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -580,16 +580,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.600000000000001</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>7.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>12.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.56</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -736,38 +736,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>145</v>
+      </c>
+      <c r="H8" t="n">
+        <v>145</v>
+      </c>
+      <c r="I8" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -783,28 +773,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="H9" t="n">
-        <v>547</v>
+        <v>145</v>
       </c>
       <c r="I9" t="n">
-        <v>547</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -820,28 +810,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>28.6</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>54.6</v>
+        <v>72</v>
       </c>
       <c r="I10" t="n">
-        <v>54.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -857,28 +847,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>252</v>
+        <v>493</v>
       </c>
       <c r="G11" t="n">
-        <v>327.6</v>
+        <v>536</v>
       </c>
       <c r="H11" t="n">
-        <v>631.8000000000001</v>
+        <v>1086</v>
       </c>
       <c r="I11" t="n">
-        <v>903.5000000000001</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="12">
@@ -906,16 +896,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>5.84</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>11.92</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="13">
@@ -931,38 +921,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="14">
@@ -987,19 +967,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="F14" t="n">
-        <v>2381</v>
+        <v>2337</v>
       </c>
       <c r="G14" t="n">
-        <v>2506</v>
+        <v>2478</v>
       </c>
       <c r="H14" t="n">
-        <v>4413.4</v>
+        <v>4360</v>
       </c>
       <c r="I14" t="n">
-        <v>4413.4</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="15">
@@ -1024,19 +1004,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H15" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I15" t="n">
-        <v>390.2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16">
@@ -1052,28 +1032,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9.900000000000002</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.36</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1104,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -1138,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>7.960000000000001</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>15.72</v>
+        <v>14.4</v>
       </c>
       <c r="I18" t="n">
-        <v>17.6</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="19">
@@ -1163,28 +1153,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G19" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H19" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I19" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -1209,19 +1199,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>5.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>12.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1246,19 +1236,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G21" t="n">
-        <v>460.8</v>
+        <v>468</v>
       </c>
       <c r="H21" t="n">
-        <v>683.1</v>
+        <v>698</v>
       </c>
       <c r="I21" t="n">
-        <v>683.1</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22">
@@ -1274,28 +1264,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>6.000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>13.6</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>27.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1320,19 +1310,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G23" t="n">
-        <v>292.5</v>
+        <v>250.6</v>
       </c>
       <c r="H23" t="n">
-        <v>653.9000000000001</v>
+        <v>495.0000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1155.1</v>
+        <v>962.4000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1489,28 +1479,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.18</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="G28" t="n">
-        <v>308.1</v>
+        <v>356</v>
       </c>
       <c r="H28" t="n">
-        <v>308.1</v>
+        <v>356</v>
       </c>
       <c r="I28" t="n">
-        <v>308.1</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29">
@@ -1563,28 +1563,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>19</v>
-      </c>
-      <c r="F29" t="n">
-        <v>59</v>
-      </c>
-      <c r="G29" t="n">
-        <v>79.64</v>
-      </c>
-      <c r="H29" t="n">
-        <v>79.64</v>
-      </c>
-      <c r="I29" t="n">
-        <v>79.64</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1609,19 +1619,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>27.8</v>
+        <v>34</v>
       </c>
       <c r="H30" t="n">
-        <v>52.96000000000001</v>
+        <v>60.40000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>101.46</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1662,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>10.2</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>22.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1683,19 +1693,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F32" t="n">
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="G32" t="n">
-        <v>395.6</v>
+        <v>427</v>
       </c>
       <c r="H32" t="n">
-        <v>529.5</v>
+        <v>517</v>
       </c>
       <c r="I32" t="n">
-        <v>529.5</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33">
@@ -1711,28 +1721,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F33" t="n">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="G33" t="n">
-        <v>382.2</v>
+        <v>423</v>
       </c>
       <c r="H33" t="n">
-        <v>751.4000000000001</v>
+        <v>813</v>
       </c>
       <c r="I33" t="n">
-        <v>923.0000000000001</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -1748,28 +1758,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.840000000000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="I34" t="n">
-        <v>26.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1897,10 +1917,10 @@
         <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.92</v>
+        <v>7.399999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1925,19 +1945,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="n">
-        <v>48.10000000000001</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>92.30000000000001</v>
+        <v>98</v>
       </c>
       <c r="I38" t="n">
-        <v>102.7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -2047,28 +2067,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>16.18</v>
+        <v>10.4</v>
       </c>
       <c r="H41" t="n">
-        <v>30.6</v>
+        <v>23.8</v>
       </c>
       <c r="I41" t="n">
-        <v>51.32</v>
+        <v>32.60000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2187,19 +2207,19 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>21.46</v>
+        <v>22.8</v>
       </c>
       <c r="H44" t="n">
-        <v>42.66</v>
+        <v>44</v>
       </c>
       <c r="I44" t="n">
-        <v>79.86000000000001</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="45">
@@ -2215,28 +2235,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>14.72</v>
+        <v>7.8</v>
       </c>
       <c r="H45" t="n">
-        <v>24.34</v>
+        <v>11.2</v>
       </c>
       <c r="I45" t="n">
-        <v>24.34</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="46">
@@ -2261,19 +2281,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G46" t="n">
-        <v>356.2</v>
+        <v>356</v>
       </c>
       <c r="H46" t="n">
-        <v>703.3000000000001</v>
+        <v>711</v>
       </c>
       <c r="I46" t="n">
-        <v>871</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47">
@@ -2304,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="I47" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="48">
@@ -2338,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="I48" t="n">
-        <v>12.48</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="49">
@@ -2372,19 +2392,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>21.56</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>43.36</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>83.04000000000001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2400,28 +2420,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="F50" t="n">
-        <v>211</v>
+        <v>851</v>
       </c>
       <c r="G50" t="n">
-        <v>231.4</v>
+        <v>886</v>
       </c>
       <c r="H50" t="n">
-        <v>231.4</v>
+        <v>1566</v>
       </c>
       <c r="I50" t="n">
-        <v>231.4</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="51">
@@ -2437,28 +2457,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G51" t="n">
-        <v>123.1</v>
+        <v>130</v>
       </c>
       <c r="H51" t="n">
-        <v>195.1</v>
+        <v>234</v>
       </c>
       <c r="I51" t="n">
-        <v>195.1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52">
@@ -2474,12 +2494,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2489,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.44</v>
+        <v>2.8</v>
       </c>
       <c r="I52" t="n">
-        <v>4.739999999999999</v>
+        <v>4.000000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2520,19 +2540,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G53" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H53" t="n">
-        <v>282.4</v>
+        <v>299</v>
       </c>
       <c r="I53" t="n">
-        <v>540.2</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54">
@@ -2548,28 +2568,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F54" t="n">
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>101.4</v>
+        <v>109</v>
       </c>
       <c r="H54" t="n">
-        <v>196.6</v>
+        <v>208</v>
       </c>
       <c r="I54" t="n">
-        <v>304.6</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55">
@@ -2641,19 +2661,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G56" t="n">
-        <v>17.84</v>
+        <v>16.2</v>
       </c>
       <c r="H56" t="n">
-        <v>30.7</v>
+        <v>27.9</v>
       </c>
       <c r="I56" t="n">
-        <v>30.7</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="57">
@@ -2669,28 +2689,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.26</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2753,28 +2783,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G59" t="n">
-        <v>66.30000000000001</v>
+        <v>82</v>
       </c>
       <c r="H59" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="I59" t="n">
-        <v>159.9</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60">
@@ -2799,19 +2829,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G60" t="n">
-        <v>44.8</v>
+        <v>57</v>
       </c>
       <c r="H60" t="n">
-        <v>87.7</v>
+        <v>110</v>
       </c>
       <c r="I60" t="n">
-        <v>165.7</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61">
@@ -2827,28 +2857,38 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>25</v>
-      </c>
-      <c r="G61" t="n">
-        <v>32.38000000000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>66.58000000000001</v>
-      </c>
-      <c r="I61" t="n">
-        <v>134.88</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2864,28 +2904,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F62" t="n">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="G62" t="n">
-        <v>287.3000000000001</v>
+        <v>425</v>
       </c>
       <c r="H62" t="n">
-        <v>287.3000000000001</v>
+        <v>532</v>
       </c>
       <c r="I62" t="n">
-        <v>287.3000000000001</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63">
@@ -2948,28 +2988,38 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7</v>
-      </c>
-      <c r="G64" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H64" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11.34</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2985,28 +3035,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>11.72</v>
+        <v>14.2</v>
       </c>
       <c r="H65" t="n">
-        <v>22.72</v>
+        <v>26.6</v>
       </c>
       <c r="I65" t="n">
-        <v>37.52</v>
+        <v>43.60000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3022,28 +3072,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G66" t="n">
-        <v>20.8</v>
+        <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>20.8</v>
+        <v>72</v>
       </c>
       <c r="I66" t="n">
-        <v>20.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67">
@@ -3068,19 +3118,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F67" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="G67" t="n">
-        <v>101.2</v>
+        <v>128</v>
       </c>
       <c r="H67" t="n">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="I67" t="n">
-        <v>422.3</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68">
@@ -3143,28 +3193,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G69" t="n">
-        <v>267.8</v>
+        <v>222.8</v>
       </c>
       <c r="H69" t="n">
-        <v>509.6</v>
+        <v>339.4</v>
       </c>
       <c r="I69" t="n">
-        <v>509.6</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="70">
@@ -3180,28 +3230,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G70" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H70" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I70" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -3217,28 +3267,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
-        <v>157.3</v>
+        <v>168</v>
       </c>
       <c r="H71" t="n">
-        <v>157.3</v>
+        <v>210</v>
       </c>
       <c r="I71" t="n">
-        <v>157.3</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -3263,19 +3313,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G72" t="n">
-        <v>354.9</v>
+        <v>364</v>
       </c>
       <c r="H72" t="n">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="I72" t="n">
-        <v>520</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73">
@@ -3291,28 +3341,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G73" t="n">
-        <v>119.8</v>
+        <v>147</v>
       </c>
       <c r="H73" t="n">
-        <v>223.4</v>
+        <v>298.6</v>
       </c>
       <c r="I73" t="n">
-        <v>248.6</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="74">
@@ -3328,28 +3378,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>24.42</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>50.38</v>
+        <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>96.58000000000001</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="75">
@@ -3365,28 +3415,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>53.16</v>
+        <v>51.2</v>
       </c>
       <c r="H75" t="n">
-        <v>104.76</v>
+        <v>98.2</v>
       </c>
       <c r="I75" t="n">
-        <v>169.26</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="76">
@@ -3458,19 +3508,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F77" t="n">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="G77" t="n">
-        <v>643.5</v>
+        <v>642.0000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>643.5</v>
+        <v>642.0000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>643.5</v>
+        <v>642.0000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3507,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="I78" t="n">
-        <v>26.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -3523,28 +3573,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F79" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G79" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="H79" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="I79" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80">
@@ -3572,16 +3622,16 @@
         <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G80" t="n">
-        <v>50.64000000000001</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>100.7</v>
+        <v>105.8</v>
       </c>
       <c r="I80" t="n">
-        <v>197.9</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81">
@@ -3597,28 +3647,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G81" t="n">
-        <v>26.82</v>
+        <v>31.6</v>
       </c>
       <c r="H81" t="n">
-        <v>33.6</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
-        <v>33.6</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="82">
@@ -3643,19 +3693,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F82" t="n">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="G82" t="n">
-        <v>297.7</v>
+        <v>404</v>
       </c>
       <c r="H82" t="n">
-        <v>581.1</v>
+        <v>854</v>
       </c>
       <c r="I82" t="n">
-        <v>647.4</v>
+        <v>968</v>
       </c>
     </row>
     <row r="83">
@@ -3671,28 +3721,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>11</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1304</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1753.7</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1753.7</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1753.7</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3802,28 +3862,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G86" t="n">
-        <v>11.2</v>
+        <v>129</v>
       </c>
       <c r="H86" t="n">
-        <v>17.5</v>
+        <v>234.2</v>
       </c>
       <c r="I86" t="n">
-        <v>17.5</v>
+        <v>262.2</v>
       </c>
     </row>
     <row r="87">
@@ -3839,28 +3899,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F87" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G87" t="n">
-        <v>204.1</v>
+        <v>199.4</v>
       </c>
       <c r="H87" t="n">
-        <v>349.7</v>
+        <v>296.2</v>
       </c>
       <c r="I87" t="n">
-        <v>349.7</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="88">
@@ -3876,28 +3936,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="F88" t="n">
-        <v>129</v>
+        <v>554</v>
       </c>
       <c r="G88" t="n">
-        <v>140</v>
+        <v>569.6</v>
       </c>
       <c r="H88" t="n">
-        <v>140</v>
+        <v>1590.8</v>
       </c>
       <c r="I88" t="n">
-        <v>140</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="89">
@@ -4016,19 +4076,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="G91" t="n">
-        <v>445.9</v>
+        <v>448</v>
       </c>
       <c r="H91" t="n">
-        <v>865.8</v>
+        <v>899</v>
       </c>
       <c r="I91" t="n">
-        <v>962</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="92">
@@ -4138,28 +4198,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F94" t="n">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="G94" t="n">
-        <v>319.8</v>
+        <v>445.8</v>
       </c>
       <c r="H94" t="n">
-        <v>319.8</v>
+        <v>629.4000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>319.8</v>
+        <v>629.4000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4175,28 +4235,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F95" t="n">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
-        <v>175.5</v>
+        <v>195</v>
       </c>
       <c r="H95" t="n">
-        <v>244.1</v>
+        <v>393</v>
       </c>
       <c r="I95" t="n">
-        <v>244.1</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96">
@@ -4221,19 +4281,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G96" t="n">
-        <v>54.60000000000001</v>
+        <v>54.00000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>80.20000000000002</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="I96" t="n">
-        <v>80.20000000000002</v>
+        <v>79.60000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4249,28 +4309,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>1027</v>
+        <v>1124</v>
       </c>
       <c r="G97" t="n">
-        <v>1072.7</v>
+        <v>1382</v>
       </c>
       <c r="H97" t="n">
-        <v>1965.6</v>
+        <v>2769.6</v>
       </c>
       <c r="I97" t="n">
-        <v>2242.5</v>
+        <v>3976.7</v>
       </c>
     </row>
     <row r="98">
@@ -4295,19 +4355,19 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>1120</v>
+        <v>932</v>
       </c>
       <c r="G98" t="n">
-        <v>1305.2</v>
+        <v>1230.8</v>
       </c>
       <c r="H98" t="n">
-        <v>2545.4</v>
+        <v>2513.8</v>
       </c>
       <c r="I98" t="n">
-        <v>3988.4</v>
+        <v>4167.099999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4323,28 +4383,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>71</v>
+        <v>1393</v>
       </c>
       <c r="F99" t="n">
-        <v>799</v>
+        <v>3329</v>
       </c>
       <c r="G99" t="n">
-        <v>982.8000000000001</v>
+        <v>3547.600000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1899.3</v>
+        <v>7368.200000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>2346.5</v>
+        <v>8357.599999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4360,28 +4420,38 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>21</v>
-      </c>
-      <c r="F100" t="n">
-        <v>257</v>
-      </c>
-      <c r="G100" t="n">
-        <v>335</v>
-      </c>
-      <c r="H100" t="n">
-        <v>335</v>
-      </c>
-      <c r="I100" t="n">
-        <v>335</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4397,28 +4467,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G101" t="n">
-        <v>370.5000000000001</v>
+        <v>429.4</v>
       </c>
       <c r="H101" t="n">
-        <v>746.2</v>
+        <v>874.1999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>1011.4</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="102">
@@ -4434,28 +4504,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>971</v>
+        <v>656</v>
       </c>
       <c r="G102" t="n">
-        <v>1092.3</v>
+        <v>861.8</v>
       </c>
       <c r="H102" t="n">
-        <v>1951.9</v>
+        <v>1526.1</v>
       </c>
       <c r="I102" t="n">
-        <v>2209.3</v>
+        <v>1526.1</v>
       </c>
     </row>
     <row r="103">
@@ -4471,28 +4541,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F103" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G103" t="n">
-        <v>249.6</v>
+        <v>279.6</v>
       </c>
       <c r="H103" t="n">
-        <v>504.4</v>
+        <v>587.8000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>683.8</v>
+        <v>914.4000000000002</v>
       </c>
     </row>
     <row r="104">
@@ -4517,19 +4587,19 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F104" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G104" t="n">
-        <v>146.26</v>
+        <v>152.4</v>
       </c>
       <c r="H104" t="n">
-        <v>293.28</v>
+        <v>308.4</v>
       </c>
       <c r="I104" t="n">
-        <v>329.58</v>
+        <v>347.9</v>
       </c>
     </row>
     <row r="105">
@@ -4545,28 +4615,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>83</v>
+        <v>568</v>
       </c>
       <c r="F105" t="n">
-        <v>213</v>
+        <v>991</v>
       </c>
       <c r="G105" t="n">
-        <v>262.28</v>
+        <v>1039.2</v>
       </c>
       <c r="H105" t="n">
-        <v>262.28</v>
+        <v>2434.6</v>
       </c>
       <c r="I105" t="n">
-        <v>262.28</v>
+        <v>3356.400000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4582,28 +4652,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G106" t="n">
-        <v>122.3</v>
+        <v>99</v>
       </c>
       <c r="H106" t="n">
-        <v>180.8</v>
+        <v>99</v>
       </c>
       <c r="I106" t="n">
-        <v>180.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
@@ -4619,28 +4689,38 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7</v>
-      </c>
-      <c r="G107" t="n">
-        <v>7.100000000000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="I107" t="n">
-        <v>19.64</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4665,19 +4745,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="G108" t="n">
-        <v>229.9</v>
+        <v>173.6</v>
       </c>
       <c r="H108" t="n">
-        <v>463.9</v>
+        <v>349.2</v>
       </c>
       <c r="I108" t="n">
-        <v>688.8000000000001</v>
+        <v>527.0000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4693,28 +4773,38 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>17</v>
-      </c>
-      <c r="G109" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="H109" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="I109" t="n">
-        <v>22.28</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4739,19 +4829,19 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F110" t="n">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="G110" t="n">
-        <v>324.5</v>
+        <v>343.2</v>
       </c>
       <c r="H110" t="n">
-        <v>639.84</v>
+        <v>682.6</v>
       </c>
       <c r="I110" t="n">
-        <v>844.9599999999999</v>
+        <v>921.3000000000002</v>
       </c>
     </row>
     <row r="111">
@@ -4767,38 +4857,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>64</v>
+      </c>
+      <c r="F111" t="n">
+        <v>297</v>
+      </c>
+      <c r="G111" t="n">
+        <v>308</v>
+      </c>
+      <c r="H111" t="n">
+        <v>308</v>
+      </c>
+      <c r="I111" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="112">
@@ -4814,28 +4894,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>16</v>
       </c>
       <c r="F112" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G112" t="n">
-        <v>118.3</v>
+        <v>107.2</v>
       </c>
       <c r="H112" t="n">
-        <v>234</v>
+        <v>217.6</v>
       </c>
       <c r="I112" t="n">
-        <v>261.3</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="113">
@@ -4851,28 +4931,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113" t="n">
-        <v>52</v>
+        <v>43.2</v>
       </c>
       <c r="H113" t="n">
-        <v>87.10000000000001</v>
+        <v>43.2</v>
       </c>
       <c r="I113" t="n">
-        <v>87.10000000000001</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="114">
@@ -4935,38 +5015,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22</v>
+      </c>
+      <c r="G115" t="n">
+        <v>24</v>
+      </c>
+      <c r="H115" t="n">
+        <v>24</v>
+      </c>
+      <c r="I115" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="116">
@@ -5029,28 +5099,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G117" t="n">
-        <v>57.2</v>
+        <v>52</v>
       </c>
       <c r="H117" t="n">
-        <v>114.4</v>
+        <v>104</v>
       </c>
       <c r="I117" t="n">
-        <v>127.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
@@ -5113,38 +5183,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>54</v>
+      </c>
+      <c r="G119" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="120">
@@ -5207,28 +5267,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G121" t="n">
-        <v>12.6</v>
+        <v>43.4</v>
       </c>
       <c r="H121" t="n">
-        <v>12.6</v>
+        <v>54.4</v>
       </c>
       <c r="I121" t="n">
-        <v>12.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="122">

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -484,28 +484,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="3">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="5">
@@ -670,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -736,28 +736,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>136</v>
-      </c>
-      <c r="G8" t="n">
-        <v>145</v>
-      </c>
-      <c r="H8" t="n">
-        <v>145</v>
-      </c>
-      <c r="I8" t="n">
-        <v>145</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -782,19 +792,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G9" t="n">
         <v>124</v>
       </c>
       <c r="H9" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -822,16 +832,16 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -856,19 +866,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G11" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H11" t="n">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I11" t="n">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="12">
@@ -896,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.800000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>7.200000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="13">
@@ -958,28 +968,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>478</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>2337</v>
+        <v>1967</v>
       </c>
       <c r="G14" t="n">
-        <v>2478</v>
+        <v>2607</v>
       </c>
       <c r="H14" t="n">
-        <v>4360</v>
+        <v>5283</v>
       </c>
       <c r="I14" t="n">
-        <v>4360</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="15">
@@ -995,28 +1005,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G15" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H15" t="n">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="I15" t="n">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
@@ -1116,28 +1126,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>7.200000000000001</v>
+        <v>9.400000000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>16.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1153,28 +1163,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H19" t="n">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="I19" t="n">
-        <v>164</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20">
@@ -1208,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>8</v>
@@ -1236,19 +1246,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F21" t="n">
-        <v>386</v>
+        <v>481</v>
       </c>
       <c r="G21" t="n">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="H21" t="n">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="I21" t="n">
-        <v>698</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22">
@@ -1310,19 +1320,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6</v>
+        <v>264.4</v>
       </c>
       <c r="H23" t="n">
-        <v>495.0000000000001</v>
+        <v>522</v>
       </c>
       <c r="I23" t="n">
-        <v>962.4000000000001</v>
+        <v>1006.4</v>
       </c>
     </row>
     <row r="24">
@@ -1526,28 +1536,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F28" t="n">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="G28" t="n">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="H28" t="n">
-        <v>356</v>
+        <v>495</v>
       </c>
       <c r="I28" t="n">
-        <v>356</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29">
@@ -1563,38 +1573,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>39</v>
+      </c>
+      <c r="F29" t="n">
+        <v>80</v>
+      </c>
+      <c r="G29" t="n">
+        <v>81.60000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>81.60000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>81.60000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1622,16 +1622,16 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>34</v>
+        <v>34.8</v>
       </c>
       <c r="H30" t="n">
-        <v>60.40000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="I30" t="n">
-        <v>110.6</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="31">
@@ -1668,7 +1668,7 @@
         <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1684,28 +1684,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G32" t="n">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="H32" t="n">
-        <v>517</v>
+        <v>815</v>
       </c>
       <c r="I32" t="n">
-        <v>517</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33">
@@ -1721,28 +1721,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F33" t="n">
-        <v>336</v>
+        <v>484</v>
       </c>
       <c r="G33" t="n">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="H33" t="n">
-        <v>813</v>
+        <v>963</v>
       </c>
       <c r="I33" t="n">
-        <v>970</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="34">
@@ -1917,10 +1917,10 @@
         <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>7.399999999999999</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1936,28 +1936,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I38" t="n">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -2067,28 +2067,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>10.4</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>23.8</v>
+        <v>11.4</v>
       </c>
       <c r="I41" t="n">
-        <v>32.60000000000001</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="42">
@@ -2198,28 +2198,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>22.8</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>79.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -2235,28 +2235,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H45" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2272,28 +2282,38 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>22</v>
-      </c>
-      <c r="F46" t="n">
-        <v>288</v>
-      </c>
-      <c r="G46" t="n">
-        <v>356</v>
-      </c>
-      <c r="H46" t="n">
-        <v>711</v>
-      </c>
-      <c r="I46" t="n">
-        <v>888</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2309,28 +2329,38 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2346,28 +2376,38 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2383,28 +2423,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="50">
@@ -2420,28 +2460,38 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>184</v>
-      </c>
-      <c r="F50" t="n">
-        <v>851</v>
-      </c>
-      <c r="G50" t="n">
-        <v>886</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1566</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1566</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2457,28 +2507,38 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>32</v>
-      </c>
-      <c r="F51" t="n">
-        <v>126</v>
-      </c>
-      <c r="G51" t="n">
-        <v>130</v>
-      </c>
-      <c r="H51" t="n">
-        <v>234</v>
-      </c>
-      <c r="I51" t="n">
-        <v>254</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2494,28 +2554,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.000000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2540,19 +2610,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I53" t="n">
-        <v>572</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -2568,28 +2638,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>19</v>
-      </c>
-      <c r="F54" t="n">
-        <v>100</v>
-      </c>
-      <c r="G54" t="n">
-        <v>109</v>
-      </c>
-      <c r="H54" t="n">
-        <v>208</v>
-      </c>
-      <c r="I54" t="n">
-        <v>333</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2652,28 +2732,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>13</v>
-      </c>
-      <c r="G56" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.9</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2783,28 +2873,38 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>9</v>
-      </c>
-      <c r="F59" t="n">
-        <v>72</v>
-      </c>
-      <c r="G59" t="n">
-        <v>82</v>
-      </c>
-      <c r="H59" t="n">
-        <v>172</v>
-      </c>
-      <c r="I59" t="n">
-        <v>243</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2829,19 +2929,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -2857,38 +2957,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>16</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -2904,28 +2994,38 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>77</v>
-      </c>
-      <c r="F62" t="n">
-        <v>397</v>
-      </c>
-      <c r="G62" t="n">
-        <v>425</v>
-      </c>
-      <c r="H62" t="n">
-        <v>532</v>
-      </c>
-      <c r="I62" t="n">
-        <v>532</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3035,28 +3135,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>11</v>
-      </c>
-      <c r="G65" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43.60000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3072,28 +3182,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>49</v>
-      </c>
-      <c r="G66" t="n">
-        <v>72</v>
-      </c>
-      <c r="H66" t="n">
-        <v>72</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3109,28 +3229,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
         <v>22</v>
-      </c>
-      <c r="F67" t="n">
-        <v>118</v>
-      </c>
-      <c r="G67" t="n">
-        <v>128</v>
-      </c>
-      <c r="H67" t="n">
-        <v>242</v>
-      </c>
-      <c r="I67" t="n">
-        <v>459</v>
       </c>
     </row>
     <row r="68">
@@ -3193,28 +3313,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>26</v>
-      </c>
-      <c r="F69" t="n">
-        <v>193</v>
-      </c>
-      <c r="G69" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="H69" t="n">
-        <v>339.4</v>
-      </c>
-      <c r="I69" t="n">
-        <v>339.4</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3230,28 +3360,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>28</v>
-      </c>
-      <c r="G70" t="n">
-        <v>41</v>
-      </c>
-      <c r="H70" t="n">
-        <v>41</v>
-      </c>
-      <c r="I70" t="n">
-        <v>41</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3267,28 +3407,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>133</v>
-      </c>
-      <c r="G71" t="n">
-        <v>168</v>
-      </c>
-      <c r="H71" t="n">
-        <v>210</v>
-      </c>
-      <c r="I71" t="n">
-        <v>210</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3304,28 +3454,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>42</v>
-      </c>
-      <c r="F72" t="n">
-        <v>315</v>
-      </c>
-      <c r="G72" t="n">
-        <v>364</v>
-      </c>
-      <c r="H72" t="n">
-        <v>549</v>
-      </c>
-      <c r="I72" t="n">
-        <v>549</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3341,28 +3501,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>112</v>
-      </c>
-      <c r="G73" t="n">
-        <v>147</v>
-      </c>
-      <c r="H73" t="n">
-        <v>298.6</v>
-      </c>
-      <c r="I73" t="n">
-        <v>298.6</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3378,28 +3548,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.2</v>
+        <v>10.2</v>
       </c>
       <c r="I74" t="n">
-        <v>3.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="75">
@@ -3415,28 +3585,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>38</v>
-      </c>
-      <c r="G75" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="H75" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>161.6</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3499,28 +3679,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>45</v>
-      </c>
-      <c r="F77" t="n">
-        <v>527</v>
-      </c>
-      <c r="G77" t="n">
-        <v>642.0000000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>642.0000000000001</v>
-      </c>
-      <c r="I77" t="n">
-        <v>642.0000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3536,28 +3726,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>8</v>
-      </c>
-      <c r="G78" t="n">
-        <v>8</v>
-      </c>
-      <c r="H78" t="n">
-        <v>16</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3573,28 +3773,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>28</v>
-      </c>
-      <c r="F79" t="n">
-        <v>121</v>
-      </c>
-      <c r="G79" t="n">
-        <v>152</v>
-      </c>
-      <c r="H79" t="n">
-        <v>152</v>
-      </c>
-      <c r="I79" t="n">
-        <v>152</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3610,28 +3820,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8</v>
+      </c>
+      <c r="H80" t="n">
         <v>12</v>
       </c>
-      <c r="F80" t="n">
-        <v>54</v>
-      </c>
-      <c r="G80" t="n">
-        <v>55.40000000000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>105.8</v>
-      </c>
       <c r="I80" t="n">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -3647,28 +3857,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>29</v>
-      </c>
-      <c r="G81" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H81" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="I81" t="n">
-        <v>47.8</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3684,28 +3904,38 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>96</v>
-      </c>
-      <c r="F82" t="n">
-        <v>400</v>
-      </c>
-      <c r="G82" t="n">
-        <v>404</v>
-      </c>
-      <c r="H82" t="n">
-        <v>854</v>
-      </c>
-      <c r="I82" t="n">
-        <v>968</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3862,28 +4092,38 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>18</v>
-      </c>
-      <c r="F86" t="n">
-        <v>103</v>
-      </c>
-      <c r="G86" t="n">
-        <v>129</v>
-      </c>
-      <c r="H86" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>262.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3899,28 +4139,38 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>42</v>
-      </c>
-      <c r="F87" t="n">
-        <v>189</v>
-      </c>
-      <c r="G87" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="H87" t="n">
-        <v>296.2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>296.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3936,28 +4186,38 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>329</v>
-      </c>
-      <c r="F88" t="n">
-        <v>554</v>
-      </c>
-      <c r="G88" t="n">
-        <v>569.6</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1590.8</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2086</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4067,28 +4327,38 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>23</v>
-      </c>
-      <c r="F91" t="n">
-        <v>359</v>
-      </c>
-      <c r="G91" t="n">
-        <v>448</v>
-      </c>
-      <c r="H91" t="n">
-        <v>899</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1010</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4198,28 +4468,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>113</v>
-      </c>
-      <c r="F94" t="n">
-        <v>441</v>
-      </c>
-      <c r="G94" t="n">
-        <v>445.8</v>
-      </c>
-      <c r="H94" t="n">
-        <v>629.4000000000001</v>
-      </c>
-      <c r="I94" t="n">
-        <v>629.4000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4235,28 +4515,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>28</v>
-      </c>
-      <c r="F95" t="n">
-        <v>175</v>
-      </c>
-      <c r="G95" t="n">
-        <v>195</v>
-      </c>
-      <c r="H95" t="n">
-        <v>393</v>
-      </c>
-      <c r="I95" t="n">
-        <v>393</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4272,28 +4562,38 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>41</v>
-      </c>
-      <c r="G96" t="n">
-        <v>54.00000000000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>79.60000000000001</v>
-      </c>
-      <c r="I96" t="n">
-        <v>79.60000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4309,28 +4609,38 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1124</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1382</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2769.6</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3976.7</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4346,28 +4656,38 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>15</v>
-      </c>
-      <c r="F98" t="n">
-        <v>932</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1230.8</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2513.8</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4167.099999999999</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4383,28 +4703,38 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>1393</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3329</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3547.600000000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>7368.200000000001</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8357.599999999999</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4467,28 +4797,38 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>331</v>
-      </c>
-      <c r="G101" t="n">
-        <v>429.4</v>
-      </c>
-      <c r="H101" t="n">
-        <v>874.1999999999999</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1334.4</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4504,28 +4844,38 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>656</v>
-      </c>
-      <c r="G102" t="n">
-        <v>861.8</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1526.1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1526.1</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4541,28 +4891,38 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>11</v>
-      </c>
-      <c r="F103" t="n">
-        <v>219</v>
-      </c>
-      <c r="G103" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="H103" t="n">
-        <v>587.8000000000001</v>
-      </c>
-      <c r="I103" t="n">
-        <v>914.4000000000002</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4578,28 +4938,38 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>18</v>
-      </c>
-      <c r="F104" t="n">
-        <v>133</v>
-      </c>
-      <c r="G104" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>308.4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>347.9</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4615,28 +4985,38 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>568</v>
-      </c>
-      <c r="F105" t="n">
-        <v>991</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1039.2</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2434.6</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3356.400000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4652,28 +5032,38 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>84</v>
-      </c>
-      <c r="G106" t="n">
-        <v>99</v>
-      </c>
-      <c r="H106" t="n">
-        <v>99</v>
-      </c>
-      <c r="I106" t="n">
-        <v>99</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4736,28 +5126,38 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>10</v>
-      </c>
-      <c r="F108" t="n">
-        <v>141</v>
-      </c>
-      <c r="G108" t="n">
-        <v>173.6</v>
-      </c>
-      <c r="H108" t="n">
-        <v>349.2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>527.0000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4820,28 +5220,38 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>23</v>
-      </c>
-      <c r="F110" t="n">
-        <v>268</v>
-      </c>
-      <c r="G110" t="n">
-        <v>343.2</v>
-      </c>
-      <c r="H110" t="n">
-        <v>682.6</v>
-      </c>
-      <c r="I110" t="n">
-        <v>921.3000000000002</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4857,28 +5267,38 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>64</v>
-      </c>
-      <c r="F111" t="n">
-        <v>297</v>
-      </c>
-      <c r="G111" t="n">
-        <v>308</v>
-      </c>
-      <c r="H111" t="n">
-        <v>308</v>
-      </c>
-      <c r="I111" t="n">
-        <v>308</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -4894,28 +5314,38 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>16</v>
-      </c>
-      <c r="F112" t="n">
-        <v>96</v>
-      </c>
-      <c r="G112" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="H112" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="I112" t="n">
-        <v>217.6</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -4931,28 +5361,38 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>39</v>
-      </c>
-      <c r="G113" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="H113" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>43.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5015,28 +5455,38 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>22</v>
-      </c>
-      <c r="G115" t="n">
-        <v>24</v>
-      </c>
-      <c r="H115" t="n">
-        <v>24</v>
-      </c>
-      <c r="I115" t="n">
-        <v>24</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5099,28 +5549,38 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>11</v>
-      </c>
-      <c r="F117" t="n">
-        <v>50</v>
-      </c>
-      <c r="G117" t="n">
-        <v>52</v>
-      </c>
-      <c r="H117" t="n">
-        <v>104</v>
-      </c>
-      <c r="I117" t="n">
-        <v>130</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5183,28 +5643,38 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>54</v>
-      </c>
-      <c r="G119" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="H119" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>66.2</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5267,28 +5737,38 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>34</v>
-      </c>
-      <c r="G121" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="H121" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="I121" t="n">
-        <v>54.4</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="122">

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -484,28 +484,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>11.3</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>8.800000000000001</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>15.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="5">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.56</v>
       </c>
       <c r="I6" t="n">
-        <v>9.800000000000001</v>
+        <v>7.040000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="G9" t="n">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="H9" t="n">
-        <v>144</v>
+        <v>622</v>
       </c>
       <c r="I9" t="n">
-        <v>144</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10">
@@ -820,28 +820,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>28.6</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>54.6</v>
       </c>
       <c r="I10" t="n">
-        <v>83</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="11">
@@ -857,28 +857,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>491</v>
+        <v>252</v>
       </c>
       <c r="G11" t="n">
-        <v>531</v>
+        <v>327.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1081</v>
+        <v>631.8000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1791</v>
+        <v>903.5000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>4.800000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="I12" t="n">
-        <v>15.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="13">
@@ -931,28 +931,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.6</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -968,28 +978,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>484</v>
       </c>
       <c r="F14" t="n">
-        <v>1967</v>
+        <v>2367</v>
       </c>
       <c r="G14" t="n">
-        <v>2607</v>
+        <v>2510</v>
       </c>
       <c r="H14" t="n">
-        <v>5283</v>
+        <v>4415</v>
       </c>
       <c r="I14" t="n">
-        <v>5283</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="15">
@@ -1005,28 +1015,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G15" t="n">
-        <v>103</v>
+        <v>137.7</v>
       </c>
       <c r="H15" t="n">
-        <v>192</v>
+        <v>267.5</v>
       </c>
       <c r="I15" t="n">
-        <v>259</v>
+        <v>416.6</v>
       </c>
     </row>
     <row r="16">
@@ -1042,38 +1052,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.900000000000002</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.36</v>
       </c>
     </row>
     <row r="17">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1126,28 +1126,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>9.400000000000002</v>
+        <v>7.760000000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>14.96</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="19">
@@ -1163,28 +1163,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G19" t="n">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="I19" t="n">
-        <v>292</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="21">
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>481</v>
+        <v>363</v>
       </c>
       <c r="G21" t="n">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="H21" t="n">
-        <v>737</v>
+        <v>660</v>
       </c>
       <c r="I21" t="n">
-        <v>737</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22">
@@ -1274,28 +1274,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>13.6</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="23">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="G23" t="n">
-        <v>264.4</v>
+        <v>225.3</v>
       </c>
       <c r="H23" t="n">
-        <v>522</v>
+        <v>464.14</v>
       </c>
       <c r="I23" t="n">
-        <v>1006.4</v>
+        <v>920.58</v>
       </c>
     </row>
     <row r="24">
@@ -1489,38 +1489,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="28">
@@ -1536,28 +1526,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="G28" t="n">
-        <v>396</v>
+        <v>308.1</v>
       </c>
       <c r="H28" t="n">
-        <v>495</v>
+        <v>308.1</v>
       </c>
       <c r="I28" t="n">
-        <v>495</v>
+        <v>308.1</v>
       </c>
     </row>
     <row r="29">
@@ -1582,19 +1572,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>81.60000000000001</v>
+        <v>79.46000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>81.60000000000001</v>
+        <v>79.46000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>81.60000000000001</v>
+        <v>79.46000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1619,19 +1609,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>34.8</v>
+        <v>27.8</v>
       </c>
       <c r="H30" t="n">
-        <v>62.8</v>
+        <v>55.10000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>114.6</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="31">
@@ -1662,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>10.2</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1684,28 +1674,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G32" t="n">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="H32" t="n">
-        <v>815</v>
+        <v>735</v>
       </c>
       <c r="I32" t="n">
-        <v>815</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33">
@@ -1721,28 +1711,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>484</v>
+        <v>299</v>
       </c>
       <c r="G33" t="n">
-        <v>488</v>
+        <v>367.9</v>
       </c>
       <c r="H33" t="n">
-        <v>963</v>
+        <v>704.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1311</v>
+        <v>846.3</v>
       </c>
     </row>
     <row r="34">
@@ -1758,38 +1748,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26.08</v>
       </c>
     </row>
     <row r="35">
@@ -1917,10 +1897,10 @@
         <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="I37" t="n">
-        <v>7.199999999999999</v>
+        <v>6.039999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1936,28 +1916,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>48.10000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>120</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>148</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="39">
@@ -2067,28 +2047,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G41" t="n">
-        <v>5.400000000000001</v>
+        <v>16.18</v>
       </c>
       <c r="H41" t="n">
-        <v>11.4</v>
+        <v>26.94</v>
       </c>
       <c r="I41" t="n">
-        <v>18.6</v>
+        <v>42.92000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2198,28 +2178,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>21.46</v>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>42.06</v>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>77.86000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2235,38 +2215,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="H45" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16.04</v>
       </c>
     </row>
     <row r="46">
@@ -2282,38 +2252,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>278</v>
+      </c>
+      <c r="G46" t="n">
+        <v>351.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>698.3000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>866</v>
       </c>
     </row>
     <row r="47">
@@ -2329,38 +2289,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.740000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2376,38 +2326,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="49">
@@ -2423,28 +2363,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>15.08</v>
       </c>
       <c r="H49" t="n">
-        <v>7.4</v>
+        <v>36.88</v>
       </c>
       <c r="I49" t="n">
-        <v>13.6</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="50">
@@ -2460,38 +2400,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>96</v>
+      </c>
+      <c r="F50" t="n">
+        <v>211</v>
+      </c>
+      <c r="G50" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>231.4</v>
       </c>
     </row>
     <row r="51">
@@ -2507,38 +2437,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>66</v>
+      </c>
+      <c r="G51" t="n">
+        <v>85</v>
+      </c>
+      <c r="H51" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>155.2</v>
       </c>
     </row>
     <row r="52">
@@ -2554,38 +2474,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="53">
@@ -2610,19 +2520,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="H53" t="n">
-        <v>23</v>
+        <v>281.3</v>
       </c>
       <c r="I53" t="n">
-        <v>41</v>
+        <v>536.1</v>
       </c>
     </row>
     <row r="54">
@@ -2638,38 +2548,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>97</v>
+      </c>
+      <c r="G54" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>276.7</v>
       </c>
     </row>
     <row r="55">
@@ -2732,38 +2632,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16</v>
+      </c>
+      <c r="H56" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="57">
@@ -2779,38 +2669,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="58">
@@ -2873,38 +2753,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>60</v>
+      </c>
+      <c r="G59" t="n">
+        <v>66.30000000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>130</v>
+      </c>
+      <c r="I59" t="n">
+        <v>159.9</v>
       </c>
     </row>
     <row r="60">
@@ -2929,19 +2799,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>44.8</v>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>87.7</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>165.7</v>
       </c>
     </row>
     <row r="61">
@@ -2957,28 +2827,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>34.60000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>16</v>
+        <v>68.80000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>24</v>
+        <v>136.08</v>
       </c>
     </row>
     <row r="62">
@@ -2994,38 +2864,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>216</v>
+      </c>
+      <c r="G62" t="n">
+        <v>287.3000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>287.3000000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>287.3000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -3088,38 +2948,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="65">
@@ -3135,38 +2985,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H65" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36.12</v>
       </c>
     </row>
     <row r="66">
@@ -3182,38 +3022,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="67">
@@ -3229,28 +3059,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>101.4</v>
       </c>
       <c r="H67" t="n">
-        <v>16</v>
+        <v>213.2</v>
       </c>
       <c r="I67" t="n">
-        <v>22</v>
+        <v>422.5</v>
       </c>
     </row>
     <row r="68">
@@ -3313,38 +3143,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>40</v>
+      </c>
+      <c r="F69" t="n">
+        <v>238</v>
+      </c>
+      <c r="G69" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>507.0000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>507.0000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -3360,38 +3180,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>59</v>
+      </c>
+      <c r="G70" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -3407,38 +3217,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>28</v>
+      </c>
+      <c r="F71" t="n">
+        <v>144</v>
+      </c>
+      <c r="G71" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>157.3</v>
       </c>
     </row>
     <row r="72">
@@ -3454,38 +3254,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>44</v>
+      </c>
+      <c r="F72" t="n">
+        <v>307</v>
+      </c>
+      <c r="G72" t="n">
+        <v>353.9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>519</v>
+      </c>
+      <c r="I72" t="n">
+        <v>519</v>
       </c>
     </row>
     <row r="73">
@@ -3501,38 +3291,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>24</v>
+      </c>
+      <c r="F73" t="n">
+        <v>108</v>
+      </c>
+      <c r="G73" t="n">
+        <v>112.08</v>
+      </c>
+      <c r="H73" t="n">
+        <v>139.84</v>
+      </c>
+      <c r="I73" t="n">
+        <v>139.84</v>
       </c>
     </row>
     <row r="74">
@@ -3548,28 +3328,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>5.2</v>
+        <v>24.42</v>
       </c>
       <c r="H74" t="n">
-        <v>10.2</v>
+        <v>50.38</v>
       </c>
       <c r="I74" t="n">
-        <v>13.8</v>
+        <v>96.58000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3585,38 +3365,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>12</v>
+      </c>
+      <c r="F75" t="n">
+        <v>52</v>
+      </c>
+      <c r="G75" t="n">
+        <v>53.16</v>
+      </c>
+      <c r="H75" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="I75" t="n">
+        <v>169.26</v>
       </c>
     </row>
     <row r="76">
@@ -3679,38 +3449,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>73</v>
+      </c>
+      <c r="F77" t="n">
+        <v>550</v>
+      </c>
+      <c r="G77" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>643.5</v>
       </c>
     </row>
     <row r="78">
@@ -3726,38 +3486,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="79">
@@ -3773,38 +3523,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>39</v>
+      </c>
+      <c r="F79" t="n">
+        <v>39</v>
+      </c>
+      <c r="G79" t="n">
+        <v>58</v>
+      </c>
+      <c r="H79" t="n">
+        <v>58</v>
+      </c>
+      <c r="I79" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="80">
@@ -3820,28 +3560,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>50.74000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>12</v>
+        <v>100.8</v>
       </c>
       <c r="I80" t="n">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
@@ -3857,38 +3597,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>21</v>
+      </c>
+      <c r="G81" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="82">
@@ -3904,38 +3634,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>35</v>
+      </c>
+      <c r="F82" t="n">
+        <v>253</v>
+      </c>
+      <c r="G82" t="n">
+        <v>297.7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>581.1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>647.4</v>
       </c>
     </row>
     <row r="83">
@@ -3951,38 +3671,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1302</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1753.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1753.7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1753.7</v>
       </c>
     </row>
     <row r="84">
@@ -4092,38 +3802,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.46</v>
       </c>
     </row>
     <row r="87">
@@ -4139,38 +3839,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>18</v>
+      </c>
+      <c r="F87" t="n">
+        <v>170</v>
+      </c>
+      <c r="G87" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>349.7</v>
+      </c>
+      <c r="I87" t="n">
+        <v>349.7</v>
       </c>
     </row>
     <row r="88">
@@ -4186,38 +3876,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>59</v>
+      </c>
+      <c r="F88" t="n">
+        <v>59</v>
+      </c>
+      <c r="G88" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="89">
@@ -4327,38 +4007,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>349</v>
+      </c>
+      <c r="G91" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>865.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>962</v>
       </c>
     </row>
     <row r="92">
@@ -4468,38 +4138,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>103</v>
+      </c>
+      <c r="F94" t="n">
+        <v>316</v>
+      </c>
+      <c r="G94" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>319.8</v>
       </c>
     </row>
     <row r="95">
@@ -4515,38 +4175,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>152</v>
+      </c>
+      <c r="G95" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>329.3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>329.3</v>
       </c>
     </row>
     <row r="96">
@@ -4562,38 +4212,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>14</v>
+      </c>
+      <c r="F96" t="n">
+        <v>54</v>
+      </c>
+      <c r="G96" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="H96" t="n">
+        <v>79.23999999999999</v>
+      </c>
+      <c r="I96" t="n">
+        <v>79.23999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4609,38 +4249,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>280</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1177</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1223.3</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2394.6</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2671.5</v>
       </c>
     </row>
     <row r="98">
@@ -4656,38 +4286,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>189</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1159</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1305.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2545.4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3988.4</v>
       </c>
     </row>
     <row r="99">
@@ -4703,38 +4323,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>259</v>
+      </c>
+      <c r="F99" t="n">
+        <v>964</v>
+      </c>
+      <c r="G99" t="n">
+        <v>967.2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1872</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2091.7</v>
       </c>
     </row>
     <row r="100">
@@ -4750,38 +4360,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>243</v>
+      </c>
+      <c r="G100" t="n">
+        <v>335</v>
+      </c>
+      <c r="H100" t="n">
+        <v>335</v>
+      </c>
+      <c r="I100" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="101">
@@ -4797,38 +4397,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>60</v>
+      </c>
+      <c r="F101" t="n">
+        <v>343</v>
+      </c>
+      <c r="G101" t="n">
+        <v>370.5000000000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>746.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1011.4</v>
       </c>
     </row>
     <row r="102">
@@ -4844,38 +4434,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>746</v>
+      </c>
+      <c r="G102" t="n">
+        <v>886</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1574.6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1574.6</v>
       </c>
     </row>
     <row r="103">
@@ -4891,38 +4471,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>198</v>
+      </c>
+      <c r="G103" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>504.4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>683.8</v>
       </c>
     </row>
     <row r="104">
@@ -4938,38 +4508,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>46</v>
+      </c>
+      <c r="F104" t="n">
+        <v>154</v>
+      </c>
+      <c r="G104" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>352.4</v>
       </c>
     </row>
     <row r="105">
@@ -4985,38 +4545,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>83</v>
+      </c>
+      <c r="F105" t="n">
+        <v>213</v>
+      </c>
+      <c r="G105" t="n">
+        <v>262.28</v>
+      </c>
+      <c r="H105" t="n">
+        <v>262.28</v>
+      </c>
+      <c r="I105" t="n">
+        <v>262.28</v>
       </c>
     </row>
     <row r="106">
@@ -5032,38 +4582,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100</v>
+      </c>
+      <c r="G106" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="H106" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="I106" t="n">
+        <v>181.8</v>
       </c>
     </row>
     <row r="107">
@@ -5079,38 +4619,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.70000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5126,38 +4656,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>20</v>
+      </c>
+      <c r="F108" t="n">
+        <v>181</v>
+      </c>
+      <c r="G108" t="n">
+        <v>216</v>
+      </c>
+      <c r="H108" t="n">
+        <v>420</v>
+      </c>
+      <c r="I108" t="n">
+        <v>661</v>
       </c>
     </row>
     <row r="109">
@@ -5173,38 +4693,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H109" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I109" t="n">
+        <v>21.8</v>
       </c>
     </row>
     <row r="110">
@@ -5220,38 +4730,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>37</v>
+      </c>
+      <c r="F110" t="n">
+        <v>267</v>
+      </c>
+      <c r="G110" t="n">
+        <v>311.3200000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>632.1800000000001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>858.8400000000001</v>
       </c>
     </row>
     <row r="111">
@@ -5314,38 +4814,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>64</v>
+      </c>
+      <c r="G112" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="I112" t="n">
+        <v>111.9</v>
       </c>
     </row>
     <row r="113">
@@ -5361,38 +4851,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F113" t="n">
+        <v>48</v>
+      </c>
+      <c r="G113" t="n">
+        <v>48.10000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>48.10000000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>48.10000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -5455,38 +4935,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="116">
@@ -5549,38 +5019,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>13</v>
+      </c>
+      <c r="F117" t="n">
+        <v>41</v>
+      </c>
+      <c r="G117" t="n">
+        <v>44</v>
+      </c>
+      <c r="H117" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="I117" t="n">
+        <v>104.9</v>
       </c>
     </row>
     <row r="118">

--- a/restock_suggestions.xlsx
+++ b/restock_suggestions.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,308 +474,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>4.16</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.839999999999998</v>
+        <v>4.419999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>118</v>
+        <v>557</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>643</v>
       </c>
       <c r="H3" t="n">
-        <v>201.5</v>
+        <v>1122</v>
       </c>
       <c r="I3" t="n">
-        <v>201.5</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W26</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>85.59999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>85.59999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>85.59999999999999</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B09QH5MFMN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>B660M DS3H DDR4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>170</v>
-      </c>
-      <c r="G6" t="n">
-        <v>182.24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>413.76</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>129.9</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>265</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>368.6</v>
+        <v>3.899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0DQLJVH25</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B850 AI TOP</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.800000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B0DQLHVQSF</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="F9" t="n">
-        <v>402</v>
+        <v>587</v>
       </c>
       <c r="G9" t="n">
-        <v>435</v>
+        <v>632.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1058</v>
+        <v>1122.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1058</v>
+        <v>1606.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B0DQLKRXKW</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7 ICE</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -814,49 +837,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B0DQLJWRDX</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B850 EAGLE WIFI6E</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>385</v>
+        <v>34.2</v>
       </c>
       <c r="H11" t="n">
-        <v>774</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1063</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B0DQLKZSKF</t>
+          <t>B07FWY246F</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B850 GAMING WIFI6</t>
+          <t>B450 AORUS M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -898,196 +921,5623 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B0DQLH22F6</t>
+          <t>B08KWMXGQW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B850 GAMING X WIFI6E</t>
+          <t>B450M DS3H V2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>33</v>
-      </c>
-      <c r="G13" t="n">
-        <v>37.78000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>52.10000000000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52.10000000000001</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B0DQLKPSMG</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B850I AORUS PRO</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="G14" t="n">
-        <v>286</v>
+        <v>474.5</v>
       </c>
       <c r="H14" t="n">
-        <v>553</v>
+        <v>932.1</v>
       </c>
       <c r="I14" t="n">
-        <v>553</v>
+        <v>1246.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B0DQLJGTRM</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B850M AORUS ELITE WIFI6E ICE</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>510</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1027</v>
+        <v>10.48</v>
       </c>
       <c r="I15" t="n">
-        <v>1327</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B0DQLJHJ8B</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B850M DS3H</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>W38</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>102</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+      <c r="G20" t="n">
+        <v>521</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1037</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.200000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45</v>
+      </c>
+      <c r="G22" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>97.88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>159.76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>133</v>
+      </c>
+      <c r="F24" t="n">
+        <v>776</v>
+      </c>
+      <c r="G24" t="n">
+        <v>864.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1697.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1895.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BHTLF2X5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>W19</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>90</v>
+      </c>
+      <c r="F27" t="n">
+        <v>466</v>
+      </c>
+      <c r="G27" t="n">
+        <v>499.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>979.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1529.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>53</v>
+      </c>
+      <c r="F28" t="n">
+        <v>236</v>
+      </c>
+      <c r="G28" t="n">
+        <v>245</v>
+      </c>
+      <c r="H28" t="n">
+        <v>493.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>550.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B083NLX6G3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B660I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.680000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.380000000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>163</v>
+      </c>
+      <c r="F32" t="n">
+        <v>862</v>
+      </c>
+      <c r="G32" t="n">
+        <v>925</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1889.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2356.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BSB6J39Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B760M G X AX DDR4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.299999999999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>14</v>
+      </c>
+      <c r="F34" t="n">
+        <v>115</v>
+      </c>
+      <c r="G34" t="n">
+        <v>135.38</v>
+      </c>
+      <c r="H34" t="n">
+        <v>194.44</v>
+      </c>
+      <c r="I34" t="n">
+        <v>194.44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.200000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.279999999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.499999999999998</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>37</v>
+      </c>
+      <c r="G43" t="n">
+        <v>49.40000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>96.20000000000002</v>
+      </c>
+      <c r="I43" t="n">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>36.23999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>70.23999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>73</v>
+      </c>
+      <c r="F46" t="n">
+        <v>487</v>
+      </c>
+      <c r="G46" t="n">
+        <v>549</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1122.7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1844.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>W17</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>W20</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.460000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>22</v>
+      </c>
+      <c r="F49" t="n">
+        <v>146</v>
+      </c>
+      <c r="G49" t="n">
+        <v>163.42</v>
+      </c>
+      <c r="H49" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>390.3800000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>536</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1066</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1767.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>26</v>
+      </c>
+      <c r="F51" t="n">
+        <v>173</v>
+      </c>
+      <c r="G51" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>377.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.920000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+      <c r="F53" t="n">
+        <v>88</v>
+      </c>
+      <c r="G53" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="H56" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="I56" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>24</v>
+      </c>
+      <c r="F59" t="n">
+        <v>89</v>
+      </c>
+      <c r="G59" t="n">
+        <v>90</v>
+      </c>
+      <c r="H59" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>255.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H60" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="I60" t="n">
+        <v>50.32000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H61" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="I61" t="n">
+        <v>41.72000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>88</v>
+      </c>
+      <c r="F62" t="n">
+        <v>418</v>
+      </c>
+      <c r="G62" t="n">
+        <v>572</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1433.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>W26</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>57</v>
+      </c>
+      <c r="G64" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>199.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.040000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.660000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>94</v>
+      </c>
+      <c r="G66" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>221.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>W18</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="H67" t="n">
+        <v>42</v>
+      </c>
+      <c r="I67" t="n">
+        <v>84.22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>61</v>
+      </c>
+      <c r="G70" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>18</v>
+      </c>
+      <c r="F71" t="n">
+        <v>126</v>
+      </c>
+      <c r="G71" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>292.7</v>
+      </c>
+      <c r="I71" t="n">
+        <v>361.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>W33</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>60</v>
+      </c>
+      <c r="F72" t="n">
+        <v>310</v>
+      </c>
+      <c r="G72" t="n">
+        <v>333</v>
+      </c>
+      <c r="H72" t="n">
+        <v>581.6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>581.6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>23</v>
+      </c>
+      <c r="G73" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="H74" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67.78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>17</v>
+      </c>
+      <c r="G75" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="H75" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>78</v>
+      </c>
+      <c r="G76" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>W26</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>36</v>
+      </c>
+      <c r="G81" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>82</v>
+      </c>
+      <c r="I81" t="n">
+        <v>146.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B07VQJYR99</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI-Y1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>271</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1874.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3452.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3452.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>W33</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>39</v>
+      </c>
+      <c r="G85" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="H85" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="I85" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>107</v>
+      </c>
+      <c r="G88" t="n">
+        <v>121</v>
+      </c>
+      <c r="H88" t="n">
+        <v>184</v>
+      </c>
+      <c r="I88" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>17</v>
+      </c>
+      <c r="F91" t="n">
+        <v>98</v>
+      </c>
+      <c r="G91" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="H91" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>343</v>
+      </c>
+      <c r="G92" t="n">
+        <v>431.6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>890.1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1687.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>W22</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I94" t="n">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D8WH4J3H</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX V2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>23</v>
+      </c>
+      <c r="G95" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H95" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0D8WJ3PYB</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760M C V2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>W26</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="H96" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="I96" t="n">
+        <v>67.65999999999998</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>100</v>
+      </c>
+      <c r="F97" t="n">
+        <v>601</v>
+      </c>
+      <c r="G97" t="n">
+        <v>839</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1532.7</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2219.1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>11</v>
+      </c>
+      <c r="F98" t="n">
+        <v>59</v>
+      </c>
+      <c r="G98" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>67</v>
+      </c>
+      <c r="F99" t="n">
+        <v>314</v>
+      </c>
+      <c r="G99" t="n">
+        <v>388.8200000000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>388.8200000000001</v>
+      </c>
+      <c r="I99" t="n">
+        <v>388.8200000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>36</v>
+      </c>
+      <c r="F100" t="n">
+        <v>446</v>
+      </c>
+      <c r="G100" t="n">
+        <v>471.2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1466.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>110</v>
+      </c>
+      <c r="F101" t="n">
+        <v>619</v>
+      </c>
+      <c r="G101" t="n">
+        <v>630.4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1512.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2286.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>212</v>
+      </c>
+      <c r="F102" t="n">
+        <v>556</v>
+      </c>
+      <c r="G102" t="n">
+        <v>572.8</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1057.8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1563.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>543</v>
+      </c>
+      <c r="G104" t="n">
+        <v>721.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1463.8</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>W29</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>25</v>
+      </c>
+      <c r="F105" t="n">
+        <v>194</v>
+      </c>
+      <c r="G105" t="n">
+        <v>224.1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>439.1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>595.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>48</v>
+      </c>
+      <c r="F106" t="n">
+        <v>207</v>
+      </c>
+      <c r="G106" t="n">
+        <v>231.9</v>
+      </c>
+      <c r="H106" t="n">
+        <v>436.4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>649.6999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>67</v>
+      </c>
+      <c r="F107" t="n">
+        <v>502</v>
+      </c>
+      <c r="G107" t="n">
+        <v>535.3</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1079.6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1234.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>14</v>
+      </c>
+      <c r="F108" t="n">
+        <v>119</v>
+      </c>
+      <c r="G108" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="H108" t="n">
+        <v>267.1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>206</v>
+      </c>
+      <c r="G110" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="I110" t="n">
+        <v>731.4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>W29</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>85</v>
+      </c>
+      <c r="G111" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="H111" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>W24</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>20</v>
+      </c>
+      <c r="F112" t="n">
+        <v>105</v>
+      </c>
+      <c r="G112" t="n">
+        <v>108.58</v>
+      </c>
+      <c r="H112" t="n">
+        <v>236.32</v>
+      </c>
+      <c r="I112" t="n">
+        <v>500.82</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>38</v>
+      </c>
+      <c r="F113" t="n">
+        <v>260</v>
+      </c>
+      <c r="G113" t="n">
+        <v>310.3000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>606.7</v>
+      </c>
+      <c r="I113" t="n">
+        <v>864.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="H114" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="I114" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>25</v>
+      </c>
+      <c r="F115" t="n">
+        <v>103</v>
+      </c>
+      <c r="G115" t="n">
+        <v>107</v>
+      </c>
+      <c r="H115" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>W35</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>25</v>
+      </c>
+      <c r="G116" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H116" t="n">
+        <v>39</v>
+      </c>
+      <c r="I116" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="I118" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>20</v>
+      </c>
+      <c r="F120" t="n">
+        <v>103</v>
+      </c>
+      <c r="G120" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>369.7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>W36</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H121" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="I121" t="n">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>40</v>
+      </c>
+      <c r="G122" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="H122" t="n">
+        <v>63.18000000000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>63.18000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>56</v>
+      </c>
+      <c r="G124" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>137.7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21</v>
+      </c>
+      <c r="G125" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="H125" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="I125" t="n">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DFHQVCBV</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRX50 AI TOP</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H126" t="n">
+        <v>7.379999999999999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>W52</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>45655</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+      <c r="I127" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B083WFQC1C</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>X870E AORUS XTREME AI TOP</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="I129" t="n">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>341</v>
+      </c>
+      <c r="G130" t="n">
+        <v>417.1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>926.4000000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1850.7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>W26</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>85</v>
+      </c>
+      <c r="F131" t="n">
+        <v>448</v>
+      </c>
+      <c r="G131" t="n">
+        <v>468.2</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1008.4</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1827.4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>36</v>
+      </c>
+      <c r="F132" t="n">
+        <v>194</v>
+      </c>
+      <c r="G132" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>527.9</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1000.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>W29</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>18</v>
+      </c>
+      <c r="F133" t="n">
+        <v>114</v>
+      </c>
+      <c r="G133" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H133" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>356.2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>W28</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>76</v>
+      </c>
+      <c r="G134" t="n">
+        <v>92.46000000000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>182.84</v>
+      </c>
+      <c r="I134" t="n">
+        <v>271.3000000000001</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>31</v>
+      </c>
+      <c r="F135" t="n">
+        <v>207</v>
+      </c>
+      <c r="G135" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>479.1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>W26</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>235</v>
+      </c>
+      <c r="G136" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>588.6999999999999</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1054.2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>15</v>
+      </c>
+      <c r="F137" t="n">
+        <v>89</v>
+      </c>
+      <c r="G137" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="H137" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="I137" t="n">
+        <v>198.22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>B0DQLHLVLK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>W26</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>24</v>
+      </c>
+      <c r="F138" t="n">
+        <v>148</v>
+      </c>
+      <c r="G138" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H138" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="I138" t="n">
+        <v>330.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0956LDTCJ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MZ31-AR0-R</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B083WG2VDF</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>X870I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>W35</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>57</v>
+      </c>
+      <c r="F140" t="n">
+        <v>249</v>
+      </c>
+      <c r="G140" t="n">
+        <v>255.88</v>
+      </c>
+      <c r="H140" t="n">
+        <v>321.54</v>
+      </c>
+      <c r="I140" t="n">
+        <v>321.54</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B083WFWPJQ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Z890 AORUS XTREME AI TOP</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>W33</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
+      <c r="G141" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F142" t="n">
+        <v>28</v>
+      </c>
+      <c r="G142" t="n">
+        <v>30</v>
+      </c>
+      <c r="H142" t="n">
         <v>36</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I142" t="n">
         <v>36</v>
       </c>
-      <c r="I17" t="n">
-        <v>36</v>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>38</v>
+      </c>
+      <c r="G143" t="n">
+        <v>39</v>
+      </c>
+      <c r="H143" t="n">
+        <v>59</v>
+      </c>
+      <c r="I143" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>W27</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>10</v>
+      </c>
+      <c r="F145" t="n">
+        <v>49</v>
+      </c>
+      <c r="G145" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="H145" t="n">
+        <v>101.74</v>
+      </c>
+      <c r="I145" t="n">
+        <v>114.96</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>27</v>
+      </c>
+      <c r="G146" t="n">
+        <v>27</v>
+      </c>
+      <c r="H146" t="n">
+        <v>27</v>
+      </c>
+      <c r="I146" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>W30</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39</v>
+      </c>
+      <c r="G147" t="n">
+        <v>40</v>
+      </c>
+      <c r="H147" t="n">
+        <v>61</v>
+      </c>
+      <c r="I147" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19</v>
+      </c>
+      <c r="G149" t="n">
+        <v>23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>23</v>
+      </c>
+      <c r="I149" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>B083WG45VJ</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Z890 AI TOP</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>B0DQLL6Z51</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860 DS3H WIFI6E </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>W31</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25</v>
+      </c>
+      <c r="G151" t="n">
+        <v>28</v>
+      </c>
+      <c r="H151" t="n">
+        <v>43</v>
+      </c>
+      <c r="I151" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>B0DQLKD2KK</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Z890 AORUS MASTER AI TOP </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>B0DXWWWTH8</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>B550 EAGLE WIFI6</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>W29</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F153" t="n">
+        <v>422</v>
+      </c>
+      <c r="G153" t="n">
+        <v>540</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1063</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>B0F3QD6QQL</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>H610M S2H V2</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>W25</t>
+        </is>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>45830</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15</v>
+      </c>
+      <c r="F154" t="n">
+        <v>248</v>
+      </c>
+      <c r="G154" t="n">
+        <v>299</v>
+      </c>
+      <c r="H154" t="n">
+        <v>615</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>B0F3PT2QVZ</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>H810M S2H</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>B0F3PQWDP8</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>W790 AI TOP</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>W23</t>
+        </is>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
